--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2286595.261560844</v>
+        <v>2283861.249266515</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11230121.00305545</v>
+        <v>11230121.00305546</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5674056.186397518</v>
+        <v>5674056.186397519</v>
       </c>
     </row>
     <row r="11">
@@ -1367,26 +1367,26 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>40.53172782580149</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
+        <v>40.53172782580149</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40.53172782580149</v>
+      </c>
+      <c r="H11" t="n">
         <v>35.70034586896595</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>40.53172782580149</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>40.53172782580149</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,16 +1449,16 @@
         <v>40.53172782580149</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>35.70034586896595</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>40.53172782580149</v>
-      </c>
-      <c r="F12" t="n">
-        <v>35.70034586896595</v>
       </c>
       <c r="G12" t="n">
         <v>40.53172782580149</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>40.53172782580149</v>
       </c>
       <c r="S13" t="n">
         <v>40.53172782580149</v>
@@ -1582,16 +1582,16 @@
         <v>40.53172782580149</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>35.70034586896595</v>
-      </c>
-      <c r="V13" t="n">
-        <v>40.53172782580149</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>71.82932404446956</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>71.82932404446956</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>71.82932404446956</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>63.26726861836881</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.82932404446956</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82932404446956</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>71.82932404446956</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>63.26726861836881</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1689,64 +1689,64 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>71.82932404446956</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="T15" t="n">
         <v>71.82932404446956</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.034171696416532</v>
-      </c>
-      <c r="I15" t="n">
-        <v>60.23309692195228</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>71.82932404446956</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>63.26726861836881</v>
       </c>
       <c r="W15" t="n">
-        <v>71.82932404446956</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>71.82932404446956</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>63.26726861836881</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>71.82932404446956</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.26726861836881</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>71.82932404446956</v>
-      </c>
-      <c r="S16" t="n">
-        <v>71.82932404446956</v>
-      </c>
-      <c r="T16" t="n">
-        <v>71.82932404446956</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>126.007596985391</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>126.007596985391</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>110.9874914247323</v>
+        <v>110.9874914247325</v>
       </c>
       <c r="T17" t="n">
-        <v>126.007596985391</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>126.007596985391</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>118.281529635176</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>118.7135587749473</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>110.9874914247325</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="Y18" t="n">
-        <v>126.007596985391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.007596985391</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>126.007596985391</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>28.17724999835938</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.17724999835874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>137.3696477204045</v>
       </c>
       <c r="C21" t="n">
-        <v>143.544963058853</v>
+        <v>143.5449630588529</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>56.89781138544669</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>128.4815445259381</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>115.905676463921</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.86335379522356</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>171.0011927653589</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>196.7778461515121</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>222.5314472314569</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>176.6094492740148</v>
+        <v>176.6094492740146</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>176.5191598478415</v>
       </c>
     </row>
     <row r="22">
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>39.17815509148168</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>39.17815509148264</v>
+      </c>
+      <c r="W22" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.6385581342729</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>105.2406173406843</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>178.467348963666</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>232.2704625545738</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.3398707246513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>126.6578747699851</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>44.76813225094974</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.85336943508095</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>127.0546705033723</v>
       </c>
       <c r="T24" t="n">
-        <v>155.5362280943563</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>181.3128814805095</v>
+        <v>181.3128814805094</v>
       </c>
       <c r="V24" t="n">
-        <v>188.1720865489599</v>
+        <v>188.1720865489598</v>
       </c>
       <c r="W24" t="n">
-        <v>207.0664825604543</v>
+        <v>207.0664825604541</v>
       </c>
       <c r="X24" t="n">
-        <v>161.1444846030121</v>
+        <v>161.144484603012</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>161.0541951768389</v>
       </c>
     </row>
     <row r="25">
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>190.054560424867</v>
+        <v>241.6905287560254</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>129.4451864574142</v>
       </c>
       <c r="X25" t="n">
-        <v>181.0811547885718</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>274.3398707246513</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.6385581342728</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="G26" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>274.3398707246513</v>
+        <v>241.6385581342729</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>128.0799983878503</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>38.65056595483873</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.71501656274516</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>67.60694363603099</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.37133651756246</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>127.0546705033725</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>155.5362280943563</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>181.3128814805095</v>
+        <v>181.3128814805094</v>
       </c>
       <c r="V27" t="n">
-        <v>188.1720865489599</v>
+        <v>188.1720865489598</v>
       </c>
       <c r="W27" t="n">
-        <v>207.0664825604543</v>
+        <v>207.0664825604541</v>
       </c>
       <c r="X27" t="n">
-        <v>161.1444846030121</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>161.0541951768389</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>135.2034795814718</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.8219743267929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>132.664890776704</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>183.3170888278161</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>76.99665205882971</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>103.2673448552638</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>251.108925702873</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="G29" t="n">
-        <v>274.3398707246513</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.880750236796438</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>118.2342520417137</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>146.4840553854188</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>244.3793711949953</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>264.8695031560513</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>61.67158612744964</v>
+        <v>61.67158612744967</v>
       </c>
       <c r="C30" t="n">
-        <v>67.84690146589804</v>
+        <v>67.84690146589807</v>
       </c>
       <c r="D30" t="n">
-        <v>42.58346804222106</v>
+        <v>42.58346804222109</v>
       </c>
       <c r="E30" t="n">
-        <v>52.78348293298325</v>
+        <v>52.78348293298328</v>
       </c>
       <c r="F30" t="n">
-        <v>40.20761487096618</v>
+        <v>40.20761487096621</v>
       </c>
       <c r="G30" t="n">
-        <v>32.48191964079294</v>
+        <v>32.48191964079297</v>
       </c>
       <c r="H30" t="n">
-        <v>7.373846714078766</v>
+        <v>7.373846714078795</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>66.82157358142013</v>
+        <v>66.82157358142015</v>
       </c>
       <c r="T30" t="n">
-        <v>95.30313117240391</v>
+        <v>95.30313117240394</v>
       </c>
       <c r="U30" t="n">
-        <v>121.0797845585571</v>
+        <v>121.0797845585572</v>
       </c>
       <c r="V30" t="n">
         <v>127.9389896270076</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.9703826595196</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.38522357621014</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>43.75387549579466</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>10.88244539503043</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>63.12938183604106</v>
+        <v>63.12938183604109</v>
       </c>
       <c r="H31" t="n">
-        <v>57.36557498502188</v>
+        <v>57.36557498502191</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>119.1550005145546</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>123.0839919058638</v>
       </c>
       <c r="U31" t="n">
         <v>181.4574318340732</v>
       </c>
       <c r="V31" t="n">
-        <v>147.2760458014103</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>89.90397847060403</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>120.8480578666195</v>
       </c>
       <c r="Y31" t="n">
-        <v>113.7230558296771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="F32" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="G32" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="H32" t="n">
-        <v>234.6132045933495</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>7.025353540923334</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>18.74789718655561</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>222.8906609477172</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>61.67158612744963</v>
+        <v>61.67158612744966</v>
       </c>
       <c r="C33" t="n">
-        <v>67.84690146589803</v>
+        <v>67.84690146589806</v>
       </c>
       <c r="D33" t="n">
-        <v>42.58346804222104</v>
+        <v>42.58346804222107</v>
       </c>
       <c r="E33" t="n">
-        <v>52.78348293298323</v>
+        <v>52.78348293298326</v>
       </c>
       <c r="F33" t="n">
-        <v>40.20761487096617</v>
+        <v>40.2076148709662</v>
       </c>
       <c r="G33" t="n">
-        <v>32.48191964079292</v>
+        <v>32.48191964079295</v>
       </c>
       <c r="H33" t="n">
-        <v>7.373846714078752</v>
+        <v>7.37384671407878</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>66.82157358142011</v>
+        <v>66.82157358142014</v>
       </c>
       <c r="T33" t="n">
-        <v>95.30313117240389</v>
+        <v>95.30313117240392</v>
       </c>
       <c r="U33" t="n">
         <v>121.0797845585571</v>
@@ -3174,7 +3174,7 @@
         <v>100.9113876810598</v>
       </c>
       <c r="Y33" t="n">
-        <v>100.8210982548866</v>
+        <v>100.8210982548867</v>
       </c>
     </row>
     <row r="34">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.97038265951959</v>
+        <v>74.97038265951961</v>
       </c>
       <c r="C34" t="n">
-        <v>62.38522357621012</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>43.75387549579465</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>10.52934434947423</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4.41934986908633</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>72.4317938547518</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>119.1550005145546</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>181.4574318340732</v>
       </c>
       <c r="V34" t="n">
-        <v>147.2760458014103</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>181.6614008141733</v>
       </c>
       <c r="X34" t="n">
-        <v>120.8480578666194</v>
+        <v>120.8480578666195</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.7230558296771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>233.80814289885</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>233.8081428988498</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>205.9382122653068</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>233.8081428988498</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>233.8081428988498</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>205.938212265307</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>233.80814289885</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>233.80814289885</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>61.67158612744963</v>
+        <v>61.67158612744966</v>
       </c>
       <c r="C36" t="n">
-        <v>67.84690146589803</v>
+        <v>38.4903617465353</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>42.58346804222107</v>
       </c>
       <c r="E36" t="n">
-        <v>52.78348293298323</v>
+        <v>52.78348293298326</v>
       </c>
       <c r="F36" t="n">
-        <v>40.20761487096617</v>
+        <v>40.2076148709662</v>
       </c>
       <c r="G36" t="n">
-        <v>32.48191964079292</v>
+        <v>32.48191964079295</v>
       </c>
       <c r="H36" t="n">
-        <v>7.373846714078752</v>
+        <v>7.37384671407878</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>66.82157358142011</v>
+        <v>66.82157358142014</v>
       </c>
       <c r="T36" t="n">
-        <v>81.50245754931414</v>
+        <v>95.30313117240392</v>
       </c>
       <c r="U36" t="n">
         <v>121.0797845585571</v>
       </c>
       <c r="V36" t="n">
-        <v>127.9389896270076</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>146.8333856385019</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>100.9113876810598</v>
       </c>
       <c r="Y36" t="n">
-        <v>100.8210982548866</v>
+        <v>100.8210982548867</v>
       </c>
     </row>
     <row r="37">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>74.97038265951961</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.772450914642739</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.584701112262484</v>
+        <v>63.12938183604108</v>
       </c>
       <c r="H37" t="n">
-        <v>57.36557498502187</v>
+        <v>57.36557498502189</v>
       </c>
       <c r="I37" t="n">
-        <v>50.58887740484057</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.43179385475177</v>
+        <v>72.4317938547518</v>
       </c>
       <c r="S37" t="n">
-        <v>119.1550005145545</v>
+        <v>119.1550005145546</v>
       </c>
       <c r="T37" t="n">
-        <v>123.0839919058638</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>181.4574318340732</v>
       </c>
       <c r="V37" t="n">
-        <v>147.2760458014103</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>181.6614008141733</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>178.3712895159042</v>
       </c>
       <c r="F38" t="n">
-        <v>202.5105466801818</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>97.85355942067353</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>202.5105466801818</v>
+        <v>202.5105466801819</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>202.5105466801819</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>202.5105466801819</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F39" t="n">
-        <v>52.94502772819942</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>19.86667301612265</v>
       </c>
       <c r="U39" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>143.4039542980102</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.77840490747883</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>138.5489565768664</v>
+        <v>55.42128086422729</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V40" t="n">
         <v>162.7410104724129</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>148.3322737392603</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>148.3322737392603</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>148.3322737392603</v>
       </c>
       <c r="E41" t="n">
-        <v>148.3322737392603</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>130.6510667095405</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>148.3322737392603</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>70.46318430427942</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.18788240526104</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>148.3322737392603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>11.68909694674481</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.080840438089003</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>120.7587950579513</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>146.5354484441046</v>
@@ -3882,7 +3882,7 @@
         <v>148.3322737392603</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>126.3670515666072</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>88.5850457215885</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>82.82123887056932</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.04454129038803</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.25412390541324</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>144.610664400102</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>130.6510667095405</v>
+      </c>
+      <c r="U43" t="n">
         <v>148.3322737392603</v>
       </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>148.3322737392603</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>148.3322737392603</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>33.32558184699226</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>19.36247327628609</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>7.413183921673455</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>33.32558184699226</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>33.32558184699226</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>29.35317249083079</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="G45" t="n">
-        <v>33.32558184699226</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>33.32558184699226</v>
+        <v>29.3531724908309</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>33.32558184699226</v>
+        <v>33.32558184699239</v>
       </c>
     </row>
     <row r="46">
@@ -4138,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>16.48492762168359</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>33.32558184699226</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>33.32558184699226</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>33.32558184699226</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>16.48492762168345</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>162.126911303206</v>
+      </c>
+      <c r="C11" t="n">
+        <v>162.126911303206</v>
+      </c>
+      <c r="D11" t="n">
+        <v>162.126911303206</v>
+      </c>
+      <c r="E11" t="n">
+        <v>121.1857720852247</v>
+      </c>
+      <c r="F11" t="n">
         <v>80.24463286724335</v>
       </c>
-      <c r="C11" t="n">
-        <v>44.18367744404542</v>
-      </c>
-      <c r="D11" t="n">
-        <v>44.18367744404542</v>
-      </c>
-      <c r="E11" t="n">
-        <v>44.18367744404542</v>
-      </c>
-      <c r="F11" t="n">
-        <v>44.18367744404542</v>
-      </c>
       <c r="G11" t="n">
-        <v>44.18367744404542</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="H11" t="n">
         <v>3.242538226064119</v>
@@ -5042,13 +5042,13 @@
         <v>3.242538226064119</v>
       </c>
       <c r="K11" t="n">
-        <v>43.36894877360759</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="L11" t="n">
-        <v>81.87409020811901</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="M11" t="n">
-        <v>81.87409020811901</v>
+        <v>41.74767966057554</v>
       </c>
       <c r="N11" t="n">
         <v>81.87409020811901</v>
@@ -5075,16 +5075,16 @@
         <v>162.126911303206</v>
       </c>
       <c r="V11" t="n">
-        <v>121.1857720852247</v>
+        <v>162.126911303206</v>
       </c>
       <c r="W11" t="n">
-        <v>121.1857720852247</v>
+        <v>162.126911303206</v>
       </c>
       <c r="X11" t="n">
-        <v>121.1857720852247</v>
+        <v>162.126911303206</v>
       </c>
       <c r="Y11" t="n">
-        <v>121.1857720852247</v>
+        <v>162.126911303206</v>
       </c>
     </row>
     <row r="12">
@@ -5097,13 +5097,13 @@
         <v>121.1857720852247</v>
       </c>
       <c r="C12" t="n">
-        <v>121.1857720852247</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="D12" t="n">
-        <v>121.1857720852247</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="E12" t="n">
-        <v>80.24463286724335</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="F12" t="n">
         <v>44.18367744404542</v>
@@ -5127,16 +5127,16 @@
         <v>83.49535932115106</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0005007556625</v>
+        <v>123.6217698686945</v>
       </c>
       <c r="N12" t="n">
-        <v>122.0005007556625</v>
+        <v>162.126911303206</v>
       </c>
       <c r="O12" t="n">
-        <v>122.0005007556625</v>
+        <v>162.126911303206</v>
       </c>
       <c r="P12" t="n">
-        <v>122.0005007556625</v>
+        <v>162.126911303206</v>
       </c>
       <c r="Q12" t="n">
         <v>162.126911303206</v>
@@ -5221,22 +5221,22 @@
         <v>162.126911303206</v>
       </c>
       <c r="R13" t="n">
-        <v>162.126911303206</v>
+        <v>121.1857720852247</v>
       </c>
       <c r="S13" t="n">
-        <v>121.1857720852247</v>
+        <v>80.24463286724335</v>
       </c>
       <c r="T13" t="n">
-        <v>80.24463286724335</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="U13" t="n">
-        <v>44.18367744404542</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="V13" t="n">
-        <v>3.242538226064119</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="W13" t="n">
-        <v>3.242538226064119</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="X13" t="n">
         <v>3.242538226064119</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.746345923557564</v>
+        <v>287.3172961778782</v>
       </c>
       <c r="C14" t="n">
-        <v>5.746345923557564</v>
+        <v>287.3172961778782</v>
       </c>
       <c r="D14" t="n">
-        <v>5.746345923557564</v>
+        <v>287.3172961778782</v>
       </c>
       <c r="E14" t="n">
-        <v>5.746345923557564</v>
+        <v>214.7624234056868</v>
       </c>
       <c r="F14" t="n">
-        <v>5.746345923557564</v>
+        <v>142.2075506334953</v>
       </c>
       <c r="G14" t="n">
-        <v>5.746345923557564</v>
+        <v>69.65267786130384</v>
       </c>
       <c r="H14" t="n">
         <v>5.746345923557564</v>
@@ -5279,19 +5279,19 @@
         <v>5.746345923557564</v>
       </c>
       <c r="K14" t="n">
-        <v>76.85737672758243</v>
+        <v>73.98420376580364</v>
       </c>
       <c r="L14" t="n">
+        <v>73.98420376580364</v>
+      </c>
+      <c r="M14" t="n">
         <v>145.0952345698285</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
+        <v>145.0952345698285</v>
+      </c>
+      <c r="O14" t="n">
         <v>216.2062653738534</v>
-      </c>
-      <c r="N14" t="n">
-        <v>216.2062653738534</v>
-      </c>
-      <c r="O14" t="n">
-        <v>287.3172961778782</v>
       </c>
       <c r="P14" t="n">
         <v>287.3172961778782</v>
@@ -5303,25 +5303,25 @@
         <v>287.3172961778782</v>
       </c>
       <c r="S14" t="n">
-        <v>214.7624234056868</v>
+        <v>287.3172961778782</v>
       </c>
       <c r="T14" t="n">
-        <v>214.7624234056868</v>
+        <v>287.3172961778782</v>
       </c>
       <c r="U14" t="n">
-        <v>142.2075506334953</v>
+        <v>287.3172961778782</v>
       </c>
       <c r="V14" t="n">
-        <v>69.65267786130384</v>
+        <v>287.3172961778782</v>
       </c>
       <c r="W14" t="n">
-        <v>5.746345923557564</v>
+        <v>287.3172961778782</v>
       </c>
       <c r="X14" t="n">
-        <v>5.746345923557564</v>
+        <v>287.3172961778782</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.746345923557564</v>
+        <v>287.3172961778782</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>214.7624234056868</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="C15" t="n">
-        <v>214.7624234056868</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="D15" t="n">
-        <v>142.2075506334953</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="E15" t="n">
-        <v>142.2075506334953</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="F15" t="n">
-        <v>69.65267786130384</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="G15" t="n">
-        <v>69.65267786130384</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="H15" t="n">
-        <v>66.58785796593361</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="I15" t="n">
         <v>5.746345923557564</v>
@@ -5358,19 +5358,19 @@
         <v>5.746345923557564</v>
       </c>
       <c r="K15" t="n">
-        <v>73.98420376580364</v>
+        <v>76.85737672758243</v>
       </c>
       <c r="L15" t="n">
-        <v>73.98420376580364</v>
+        <v>147.9684075316073</v>
       </c>
       <c r="M15" t="n">
-        <v>73.98420376580364</v>
+        <v>219.0794383356321</v>
       </c>
       <c r="N15" t="n">
-        <v>145.0952345698285</v>
+        <v>287.3172961778782</v>
       </c>
       <c r="O15" t="n">
-        <v>216.2062653738534</v>
+        <v>287.3172961778782</v>
       </c>
       <c r="P15" t="n">
         <v>287.3172961778782</v>
@@ -5382,25 +5382,25 @@
         <v>287.3172961778782</v>
       </c>
       <c r="S15" t="n">
-        <v>287.3172961778782</v>
+        <v>214.7624234056868</v>
       </c>
       <c r="T15" t="n">
-        <v>287.3172961778782</v>
+        <v>142.2075506334953</v>
       </c>
       <c r="U15" t="n">
-        <v>287.3172961778782</v>
+        <v>69.65267786130384</v>
       </c>
       <c r="V15" t="n">
-        <v>287.3172961778782</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="W15" t="n">
-        <v>214.7624234056868</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="X15" t="n">
-        <v>214.7624234056868</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="Y15" t="n">
-        <v>214.7624234056868</v>
+        <v>5.746345923557564</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.65267786130384</v>
+        <v>214.7624234056868</v>
       </c>
       <c r="C16" t="n">
-        <v>69.65267786130384</v>
+        <v>214.7624234056868</v>
       </c>
       <c r="D16" t="n">
-        <v>69.65267786130384</v>
+        <v>214.7624234056868</v>
       </c>
       <c r="E16" t="n">
-        <v>69.65267786130384</v>
+        <v>142.2075506334953</v>
       </c>
       <c r="F16" t="n">
-        <v>69.65267786130384</v>
+        <v>78.30121869574904</v>
       </c>
       <c r="G16" t="n">
-        <v>69.65267786130384</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="H16" t="n">
-        <v>69.65267786130384</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="I16" t="n">
-        <v>69.65267786130384</v>
+        <v>5.746345923557564</v>
       </c>
       <c r="J16" t="n">
         <v>5.746345923557564</v>
@@ -5458,28 +5458,28 @@
         <v>287.3172961778782</v>
       </c>
       <c r="R16" t="n">
+        <v>287.3172961778782</v>
+      </c>
+      <c r="S16" t="n">
+        <v>287.3172961778782</v>
+      </c>
+      <c r="T16" t="n">
+        <v>287.3172961778782</v>
+      </c>
+      <c r="U16" t="n">
         <v>214.7624234056868</v>
       </c>
-      <c r="S16" t="n">
-        <v>142.2075506334953</v>
-      </c>
-      <c r="T16" t="n">
-        <v>69.65267786130384</v>
-      </c>
-      <c r="U16" t="n">
-        <v>69.65267786130384</v>
-      </c>
       <c r="V16" t="n">
-        <v>69.65267786130384</v>
+        <v>214.7624234056868</v>
       </c>
       <c r="W16" t="n">
-        <v>69.65267786130384</v>
+        <v>214.7624234056868</v>
       </c>
       <c r="X16" t="n">
-        <v>69.65267786130384</v>
+        <v>214.7624234056868</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.65267786130384</v>
+        <v>214.7624234056868</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>264.6414097495202</v>
+        <v>137.3610087541759</v>
       </c>
       <c r="C17" t="n">
-        <v>264.6414097495202</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="D17" t="n">
-        <v>264.6414097495202</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="E17" t="n">
-        <v>264.6414097495202</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="F17" t="n">
-        <v>264.6414097495202</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="G17" t="n">
-        <v>137.3610087541757</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="H17" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="I17" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="J17" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="K17" t="n">
         <v>113.0956136697536</v>
       </c>
       <c r="L17" t="n">
-        <v>113.0956136697536</v>
+        <v>164.8752906184391</v>
       </c>
       <c r="M17" t="n">
-        <v>237.8431346852907</v>
+        <v>289.6228116339763</v>
       </c>
       <c r="N17" t="n">
-        <v>289.6228116339759</v>
+        <v>289.6228116339763</v>
       </c>
       <c r="O17" t="n">
-        <v>414.370332649513</v>
+        <v>414.3703326495135</v>
       </c>
       <c r="P17" t="n">
-        <v>504.030387941564</v>
+        <v>504.0303879415645</v>
       </c>
       <c r="Q17" t="n">
-        <v>504.030387941564</v>
+        <v>504.0303879415645</v>
       </c>
       <c r="R17" t="n">
-        <v>504.030387941564</v>
+        <v>504.0303879415645</v>
       </c>
       <c r="S17" t="n">
-        <v>391.9218107448646</v>
+        <v>391.921810744865</v>
       </c>
       <c r="T17" t="n">
-        <v>264.6414097495202</v>
+        <v>391.921810744865</v>
       </c>
       <c r="U17" t="n">
-        <v>264.6414097495202</v>
+        <v>264.6414097495204</v>
       </c>
       <c r="V17" t="n">
-        <v>264.6414097495202</v>
+        <v>137.3610087541759</v>
       </c>
       <c r="W17" t="n">
-        <v>264.6414097495202</v>
+        <v>137.3610087541759</v>
       </c>
       <c r="X17" t="n">
-        <v>264.6414097495202</v>
+        <v>137.3610087541759</v>
       </c>
       <c r="Y17" t="n">
-        <v>264.6414097495202</v>
+        <v>137.3610087541759</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>376.7499869462195</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="C18" t="n">
-        <v>249.4695859508751</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="D18" t="n">
-        <v>129.9932933900912</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="E18" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="F18" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="G18" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="H18" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="I18" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="J18" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="K18" t="n">
-        <v>10.08060775883128</v>
+        <v>134.8281287743685</v>
       </c>
       <c r="L18" t="n">
-        <v>10.08060775883128</v>
+        <v>259.5756497899057</v>
       </c>
       <c r="M18" t="n">
-        <v>134.8281287743684</v>
+        <v>379.2828669260273</v>
       </c>
       <c r="N18" t="n">
-        <v>185.1407873971605</v>
+        <v>379.2828669260273</v>
       </c>
       <c r="O18" t="n">
-        <v>309.8883084126976</v>
+        <v>379.2828669260273</v>
       </c>
       <c r="P18" t="n">
-        <v>434.6358294282347</v>
+        <v>504.0303879415645</v>
       </c>
       <c r="Q18" t="n">
-        <v>504.030387941564</v>
+        <v>504.0303879415645</v>
       </c>
       <c r="R18" t="n">
-        <v>504.030387941564</v>
+        <v>504.0303879415645</v>
       </c>
       <c r="S18" t="n">
-        <v>504.030387941564</v>
+        <v>391.921810744865</v>
       </c>
       <c r="T18" t="n">
-        <v>504.030387941564</v>
+        <v>264.6414097495204</v>
       </c>
       <c r="U18" t="n">
-        <v>504.030387941564</v>
+        <v>264.6414097495204</v>
       </c>
       <c r="V18" t="n">
-        <v>504.030387941564</v>
+        <v>264.6414097495204</v>
       </c>
       <c r="W18" t="n">
-        <v>504.030387941564</v>
+        <v>137.3610087541759</v>
       </c>
       <c r="X18" t="n">
-        <v>504.030387941564</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="Y18" t="n">
-        <v>376.7499869462195</v>
+        <v>10.08060775883129</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.3610087541757</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="C19" t="n">
-        <v>10.08060775883128</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="D19" t="n">
-        <v>10.08060775883128</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="E19" t="n">
-        <v>10.08060775883128</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="F19" t="n">
-        <v>10.08060775883128</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="G19" t="n">
-        <v>10.08060775883128</v>
+        <v>137.3610087541759</v>
       </c>
       <c r="H19" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="I19" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="J19" t="n">
-        <v>10.08060775883128</v>
+        <v>10.08060775883129</v>
       </c>
       <c r="K19" t="n">
-        <v>16.90571142137533</v>
+        <v>16.9057114213755</v>
       </c>
       <c r="L19" t="n">
-        <v>73.09173699925638</v>
+        <v>73.09173699925672</v>
       </c>
       <c r="M19" t="n">
-        <v>141.1516757616466</v>
+        <v>141.1516757616471</v>
       </c>
       <c r="N19" t="n">
-        <v>213.714426987251</v>
+        <v>213.7144269872517</v>
       </c>
       <c r="O19" t="n">
-        <v>266.9256041923184</v>
+        <v>266.9256041923192</v>
       </c>
       <c r="P19" t="n">
-        <v>293.103278434731</v>
+        <v>293.1032784347319</v>
       </c>
       <c r="Q19" t="n">
-        <v>293.103278434731</v>
+        <v>293.1032784347319</v>
       </c>
       <c r="R19" t="n">
-        <v>293.103278434731</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="S19" t="n">
-        <v>293.103278434731</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="T19" t="n">
-        <v>293.103278434731</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="U19" t="n">
-        <v>293.103278434731</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="V19" t="n">
-        <v>293.103278434731</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="W19" t="n">
-        <v>293.103278434731</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="X19" t="n">
-        <v>293.103278434731</v>
+        <v>165.8228774393874</v>
       </c>
       <c r="Y19" t="n">
-        <v>264.6414097495202</v>
+        <v>165.8228774393874</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5789,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189.3905540739265</v>
+        <v>468.6043708214842</v>
       </c>
       <c r="C21" t="n">
-        <v>44.39564189326683</v>
+        <v>323.6094586408246</v>
       </c>
       <c r="D21" t="n">
-        <v>44.39564189326683</v>
+        <v>266.1369218878482</v>
       </c>
       <c r="E21" t="n">
-        <v>44.39564189326683</v>
+        <v>136.3575839828602</v>
       </c>
       <c r="F21" t="n">
-        <v>44.39564189326683</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>44.39564189326683</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>44.39564189326683</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5835,10 +5835,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>791.3286779698697</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>592.5631768067261</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>592.5631768067261</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>367.7839371789919</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>189.3905540739265</v>
+        <v>785.663772405571</v>
       </c>
       <c r="Y21" t="n">
-        <v>189.3905540739265</v>
+        <v>607.3615907410847</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.85503714201241</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>58.85503714201241</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>58.85503714201241</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>58.85503714201241</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>58.85503714201241</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>58.85503714201241</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>58.85503714201241</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
         <v>19.28114311021272</v>
@@ -5911,49 +5911,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>26.10624677275678</v>
+        <v>26.10624677275694</v>
       </c>
       <c r="L22" t="n">
-        <v>82.29227235063783</v>
+        <v>82.29227235063816</v>
       </c>
       <c r="M22" t="n">
-        <v>150.3522111130281</v>
+        <v>150.3522111130286</v>
       </c>
       <c r="N22" t="n">
-        <v>222.9149623386325</v>
+        <v>222.9149623386331</v>
       </c>
       <c r="O22" t="n">
-        <v>276.1261395436998</v>
+        <v>276.1261395437007</v>
       </c>
       <c r="P22" t="n">
-        <v>302.3038137861125</v>
+        <v>302.3038137861134</v>
       </c>
       <c r="Q22" t="n">
-        <v>302.3038137861125</v>
+        <v>302.3038137861134</v>
       </c>
       <c r="R22" t="n">
-        <v>302.3038137861125</v>
+        <v>302.3038137861134</v>
       </c>
       <c r="S22" t="n">
-        <v>302.3038137861125</v>
+        <v>302.3038137861134</v>
       </c>
       <c r="T22" t="n">
-        <v>302.3038137861125</v>
+        <v>302.3038137861134</v>
       </c>
       <c r="U22" t="n">
-        <v>58.85503714201241</v>
+        <v>302.3038137861134</v>
       </c>
       <c r="V22" t="n">
-        <v>58.85503714201241</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W22" t="n">
-        <v>58.85503714201241</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>58.85503714201241</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>58.85503714201241</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>299.058170187923</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="C23" t="n">
-        <v>299.058170187923</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="D23" t="n">
-        <v>299.058170187923</v>
+        <v>576.1691507178741</v>
       </c>
       <c r="E23" t="n">
-        <v>299.058170187923</v>
+        <v>576.1691507178741</v>
       </c>
       <c r="F23" t="n">
-        <v>299.058170187923</v>
+        <v>299.0581701879231</v>
       </c>
       <c r="G23" t="n">
-        <v>299.058170187923</v>
+        <v>299.0581701879231</v>
       </c>
       <c r="H23" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I23" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J23" t="n">
-        <v>54.2996087913664</v>
+        <v>54.29960879136654</v>
       </c>
       <c r="K23" t="n">
-        <v>157.3146147022887</v>
+        <v>157.3146147022889</v>
       </c>
       <c r="L23" t="n">
-        <v>337.3904662869473</v>
+        <v>337.3904662869475</v>
       </c>
       <c r="M23" t="n">
-        <v>598.548309144312</v>
+        <v>574.1763162901452</v>
       </c>
       <c r="N23" t="n">
-        <v>804.4028313515514</v>
+        <v>780.0308384973846</v>
       </c>
       <c r="O23" t="n">
-        <v>953.5977814941995</v>
+        <v>973.4080042344934</v>
       </c>
       <c r="P23" t="n">
         <v>1063.068059526544</v>
       </c>
       <c r="Q23" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="R23" t="n">
-        <v>991.0558290191262</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="S23" t="n">
-        <v>991.0558290191262</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="T23" t="n">
-        <v>810.7857795608777</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="U23" t="n">
-        <v>810.7857795608777</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="V23" t="n">
-        <v>576.1691507178739</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="W23" t="n">
-        <v>576.1691507178739</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="X23" t="n">
-        <v>576.1691507178739</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="Y23" t="n">
-        <v>299.058170187923</v>
+        <v>1097.359482898606</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>195.1047725074013</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="C24" t="n">
-        <v>67.16752526499205</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="D24" t="n">
-        <v>67.16752526499205</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="E24" t="n">
-        <v>67.16752526499205</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="F24" t="n">
-        <v>67.16752526499205</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="G24" t="n">
-        <v>67.16752526499205</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="H24" t="n">
-        <v>67.16752526499205</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I24" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J24" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="K24" t="n">
-        <v>21.94718965797211</v>
+        <v>147.3047497158095</v>
       </c>
       <c r="L24" t="n">
-        <v>122.7696471664826</v>
+        <v>377.2678555841587</v>
       </c>
       <c r="M24" t="n">
-        <v>394.3661191838875</v>
+        <v>377.2678555841587</v>
       </c>
       <c r="N24" t="n">
-        <v>665.9625912012923</v>
+        <v>648.8643276015637</v>
       </c>
       <c r="O24" t="n">
-        <v>914.7160052852546</v>
+        <v>897.617741685526</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.359482898605</v>
+        <v>1080.261219298877</v>
       </c>
       <c r="Q24" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="R24" t="n">
-        <v>1097.359482898605</v>
+        <v>1058.113655186403</v>
       </c>
       <c r="S24" t="n">
-        <v>1097.359482898605</v>
+        <v>929.7756041728956</v>
       </c>
       <c r="T24" t="n">
-        <v>940.2521817931949</v>
+        <v>929.7756041728956</v>
       </c>
       <c r="U24" t="n">
-        <v>757.1078570654076</v>
+        <v>746.6312794451082</v>
       </c>
       <c r="V24" t="n">
-        <v>567.0350423694886</v>
+        <v>556.5584647491893</v>
       </c>
       <c r="W24" t="n">
-        <v>357.8769791771105</v>
+        <v>347.4004015568114</v>
       </c>
       <c r="X24" t="n">
-        <v>195.1047725074013</v>
+        <v>184.6281948871023</v>
       </c>
       <c r="Y24" t="n">
-        <v>195.1047725074013</v>
+        <v>21.94718965797212</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="C25" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="D25" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="E25" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="F25" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="G25" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="H25" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I25" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J25" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="K25" t="n">
-        <v>44.08260834480876</v>
+        <v>44.08260834480891</v>
       </c>
       <c r="L25" t="n">
-        <v>115.5789489469824</v>
+        <v>115.5789489469827</v>
       </c>
       <c r="M25" t="n">
-        <v>198.9492027336653</v>
+        <v>198.9492027336657</v>
       </c>
       <c r="N25" t="n">
-        <v>286.8222689835623</v>
+        <v>286.8222689835628</v>
       </c>
       <c r="O25" t="n">
-        <v>355.3437612129222</v>
+        <v>355.3437612129229</v>
       </c>
       <c r="P25" t="n">
-        <v>396.8317504796275</v>
+        <v>396.8317504796283</v>
       </c>
       <c r="Q25" t="n">
-        <v>396.8317504796275</v>
+        <v>396.8317504796283</v>
       </c>
       <c r="R25" t="n">
-        <v>396.8317504796275</v>
+        <v>396.8317504796283</v>
       </c>
       <c r="S25" t="n">
-        <v>396.8317504796275</v>
+        <v>396.8317504796283</v>
       </c>
       <c r="T25" t="n">
-        <v>396.8317504796275</v>
+        <v>396.8317504796283</v>
       </c>
       <c r="U25" t="n">
-        <v>204.8574470201659</v>
+        <v>152.6999032513198</v>
       </c>
       <c r="V25" t="n">
-        <v>204.8574470201659</v>
+        <v>152.6999032513198</v>
       </c>
       <c r="W25" t="n">
-        <v>204.8574470201659</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="X25" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>820.2485023686545</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="C26" t="n">
-        <v>820.2485023686545</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="D26" t="n">
-        <v>543.1375218387036</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="E26" t="n">
-        <v>299.058170187923</v>
+        <v>576.1691507178741</v>
       </c>
       <c r="F26" t="n">
-        <v>299.058170187923</v>
+        <v>299.0581701879231</v>
       </c>
       <c r="G26" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="H26" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I26" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J26" t="n">
-        <v>54.2996087913664</v>
+        <v>54.29960879136654</v>
       </c>
       <c r="K26" t="n">
-        <v>177.1248374425822</v>
+        <v>201.4968302967496</v>
       </c>
       <c r="L26" t="n">
-        <v>401.3829046217015</v>
+        <v>381.5726818814082</v>
       </c>
       <c r="M26" t="n">
-        <v>618.3585318846057</v>
+        <v>598.5483091443124</v>
       </c>
       <c r="N26" t="n">
-        <v>824.2130540918449</v>
+        <v>824.2130540918454</v>
       </c>
       <c r="O26" t="n">
-        <v>973.408004234493</v>
+        <v>973.4080042344934</v>
       </c>
       <c r="P26" t="n">
         <v>1063.068059526544</v>
       </c>
       <c r="Q26" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="R26" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="S26" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="T26" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="U26" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="V26" t="n">
-        <v>820.2485023686545</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="W26" t="n">
-        <v>820.2485023686545</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="X26" t="n">
-        <v>820.2485023686545</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="Y26" t="n">
-        <v>820.2485023686545</v>
+        <v>853.2801312478251</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.94718965797211</v>
+        <v>352.3032750533915</v>
       </c>
       <c r="C27" t="n">
-        <v>21.94718965797211</v>
+        <v>222.9295393080882</v>
       </c>
       <c r="D27" t="n">
-        <v>21.94718965797211</v>
+        <v>222.9295393080882</v>
       </c>
       <c r="E27" t="n">
-        <v>21.94718965797211</v>
+        <v>222.9295393080882</v>
       </c>
       <c r="F27" t="n">
-        <v>21.94718965797211</v>
+        <v>183.8885635961299</v>
       </c>
       <c r="G27" t="n">
-        <v>21.94718965797211</v>
+        <v>90.23703171456908</v>
       </c>
       <c r="H27" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I27" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J27" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="K27" t="n">
         <v>147.3047497158095</v>
@@ -6312,43 +6312,43 @@
         <v>377.2678555841587</v>
       </c>
       <c r="M27" t="n">
-        <v>648.8643276015634</v>
+        <v>648.8643276015637</v>
       </c>
       <c r="N27" t="n">
-        <v>665.9625912012923</v>
+        <v>648.8643276015637</v>
       </c>
       <c r="O27" t="n">
-        <v>914.7160052852546</v>
+        <v>897.617741685526</v>
       </c>
       <c r="P27" t="n">
-        <v>1097.359482898605</v>
+        <v>1080.261219298877</v>
       </c>
       <c r="Q27" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="R27" t="n">
-        <v>1052.539951062684</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="S27" t="n">
-        <v>924.2019000491762</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="T27" t="n">
-        <v>767.0945989437657</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="U27" t="n">
-        <v>583.9502742159784</v>
+        <v>914.2151581708185</v>
       </c>
       <c r="V27" t="n">
-        <v>393.8774595200593</v>
+        <v>724.1423434748996</v>
       </c>
       <c r="W27" t="n">
-        <v>184.7193963276813</v>
+        <v>514.9842802825217</v>
       </c>
       <c r="X27" t="n">
-        <v>21.94718965797211</v>
+        <v>514.9842802825217</v>
       </c>
       <c r="Y27" t="n">
-        <v>21.94718965797211</v>
+        <v>352.3032750533915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.8885778668539</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="C28" t="n">
-        <v>133.8885778668539</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="D28" t="n">
-        <v>133.8885778668539</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="E28" t="n">
-        <v>133.8885778668539</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="F28" t="n">
-        <v>133.8885778668539</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="G28" t="n">
-        <v>133.8885778668539</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="H28" t="n">
-        <v>133.8885778668539</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I28" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J28" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="K28" t="n">
-        <v>44.08260834480876</v>
+        <v>44.08260834480891</v>
       </c>
       <c r="L28" t="n">
-        <v>115.5789489469824</v>
+        <v>115.5789489469827</v>
       </c>
       <c r="M28" t="n">
-        <v>198.9492027336653</v>
+        <v>198.9492027336657</v>
       </c>
       <c r="N28" t="n">
-        <v>286.8222689835623</v>
+        <v>286.8222689835628</v>
       </c>
       <c r="O28" t="n">
-        <v>355.3437612129222</v>
+        <v>355.3437612129229</v>
       </c>
       <c r="P28" t="n">
-        <v>396.8317504796275</v>
+        <v>396.8317504796283</v>
       </c>
       <c r="Q28" t="n">
-        <v>396.8317504796275</v>
+        <v>396.8317504796283</v>
       </c>
       <c r="R28" t="n">
-        <v>396.8317504796275</v>
+        <v>262.8268103011394</v>
       </c>
       <c r="S28" t="n">
-        <v>396.8317504796275</v>
+        <v>262.8268103011394</v>
       </c>
       <c r="T28" t="n">
-        <v>211.6629738858738</v>
+        <v>262.8268103011394</v>
       </c>
       <c r="U28" t="n">
-        <v>133.8885778668539</v>
+        <v>262.8268103011394</v>
       </c>
       <c r="V28" t="n">
-        <v>133.8885778668539</v>
+        <v>262.8268103011394</v>
       </c>
       <c r="W28" t="n">
-        <v>133.8885778668539</v>
+        <v>158.5163609523881</v>
       </c>
       <c r="X28" t="n">
-        <v>133.8885778668539</v>
+        <v>158.5163609523881</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.8885778668539</v>
+        <v>158.5163609523881</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>299.058170187923</v>
+        <v>552.7035496857746</v>
       </c>
       <c r="C29" t="n">
-        <v>299.058170187923</v>
+        <v>552.7035496857746</v>
       </c>
       <c r="D29" t="n">
-        <v>299.058170187923</v>
+        <v>552.7035496857746</v>
       </c>
       <c r="E29" t="n">
-        <v>299.058170187923</v>
+        <v>299.0581701879231</v>
       </c>
       <c r="F29" t="n">
-        <v>299.058170187923</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="G29" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="H29" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I29" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J29" t="n">
         <v>113.9303747440992</v>
@@ -6467,46 +6467,46 @@
         <v>216.9453806550216</v>
       </c>
       <c r="L29" t="n">
-        <v>397.0212322396802</v>
+        <v>397.0212322396801</v>
       </c>
       <c r="M29" t="n">
-        <v>613.9968595025844</v>
+        <v>613.9968595025842</v>
       </c>
       <c r="N29" t="n">
-        <v>819.8513817098237</v>
+        <v>819.8513817098235</v>
       </c>
       <c r="O29" t="n">
-        <v>969.0463318524718</v>
+        <v>969.0463318524716</v>
       </c>
       <c r="P29" t="n">
         <v>1058.706387144523</v>
       </c>
       <c r="Q29" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="R29" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="S29" t="n">
-        <v>1090.409230134165</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="T29" t="n">
-        <v>970.9806927182922</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="U29" t="n">
-        <v>823.0170004097884</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="V29" t="n">
-        <v>823.0170004097884</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="W29" t="n">
-        <v>576.1691507178739</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="X29" t="n">
-        <v>576.1691507178739</v>
+        <v>829.8145302157257</v>
       </c>
       <c r="Y29" t="n">
-        <v>299.058170187923</v>
+        <v>552.7035496857746</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>267.6817691195279</v>
+        <v>267.681769119528</v>
       </c>
       <c r="C30" t="n">
-        <v>199.1495454166005</v>
+        <v>199.1495454166006</v>
       </c>
       <c r="D30" t="n">
-        <v>156.1359413335489</v>
+        <v>156.135941333549</v>
       </c>
       <c r="E30" t="n">
         <v>102.8192919062931</v>
@@ -6531,61 +6531,61 @@
         <v>62.20553951137776</v>
       </c>
       <c r="G30" t="n">
-        <v>29.39551967219308</v>
+        <v>29.39551967219312</v>
       </c>
       <c r="H30" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I30" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J30" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="K30" t="n">
-        <v>72.16539686876655</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="L30" t="n">
-        <v>302.1285027371157</v>
+        <v>251.9102955263212</v>
       </c>
       <c r="M30" t="n">
-        <v>573.7249747545205</v>
+        <v>394.3661191838878</v>
       </c>
       <c r="N30" t="n">
-        <v>845.3214467719254</v>
+        <v>665.9625912012928</v>
       </c>
       <c r="O30" t="n">
-        <v>845.3214467719254</v>
+        <v>914.7160052852551</v>
       </c>
       <c r="P30" t="n">
-        <v>1027.964924385276</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="Q30" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="R30" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="S30" t="n">
         <v>1029.862943927474</v>
       </c>
       <c r="T30" t="n">
-        <v>933.5971548644397</v>
+        <v>933.5971548644401</v>
       </c>
       <c r="U30" t="n">
-        <v>811.2943421790286</v>
+        <v>811.2943421790288</v>
       </c>
       <c r="V30" t="n">
-        <v>682.0630395254856</v>
+        <v>682.0630395254857</v>
       </c>
       <c r="W30" t="n">
-        <v>533.7464883754836</v>
+        <v>533.7464883754838</v>
       </c>
       <c r="X30" t="n">
         <v>431.8157937481506</v>
       </c>
       <c r="Y30" t="n">
-        <v>329.9763005613963</v>
+        <v>329.9763005613964</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>261.862847524738</v>
+        <v>143.6592672550055</v>
       </c>
       <c r="C31" t="n">
-        <v>198.8474701750307</v>
+        <v>143.6592672550055</v>
       </c>
       <c r="D31" t="n">
-        <v>154.6516363408947</v>
+        <v>143.6592672550055</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6592672550054</v>
+        <v>143.6592672550055</v>
       </c>
       <c r="F31" t="n">
-        <v>143.6592672550054</v>
+        <v>143.6592672550055</v>
       </c>
       <c r="G31" t="n">
-        <v>79.89221489536794</v>
+        <v>79.89221489536799</v>
       </c>
       <c r="H31" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I31" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J31" t="n">
-        <v>33.33458288965958</v>
+        <v>33.33458288965956</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1007675292291</v>
+        <v>115.100767529229</v>
       </c>
       <c r="L31" t="n">
-        <v>246.2278740841356</v>
+        <v>246.2278740841355</v>
       </c>
       <c r="M31" t="n">
-        <v>389.2288938235513</v>
+        <v>389.2288938235512</v>
       </c>
       <c r="N31" t="n">
-        <v>536.7327260261811</v>
+        <v>536.732726026181</v>
       </c>
       <c r="O31" t="n">
-        <v>664.8849842082739</v>
+        <v>664.8849842082737</v>
       </c>
       <c r="P31" t="n">
-        <v>766.0037394277119</v>
+        <v>766.0037394277118</v>
       </c>
       <c r="Q31" t="n">
-        <v>784.516298155728</v>
+        <v>784.5162981557279</v>
       </c>
       <c r="R31" t="n">
-        <v>784.516298155728</v>
+        <v>784.5162981557279</v>
       </c>
       <c r="S31" t="n">
-        <v>784.516298155728</v>
+        <v>664.15771177739</v>
       </c>
       <c r="T31" t="n">
-        <v>784.516298155728</v>
+        <v>539.8304472260123</v>
       </c>
       <c r="U31" t="n">
-        <v>601.2259629697955</v>
+        <v>356.5401120400797</v>
       </c>
       <c r="V31" t="n">
-        <v>452.4622803421083</v>
+        <v>356.5401120400797</v>
       </c>
       <c r="W31" t="n">
-        <v>452.4622803421083</v>
+        <v>265.7280125748231</v>
       </c>
       <c r="X31" t="n">
-        <v>452.4622803421083</v>
+        <v>143.6592672550055</v>
       </c>
       <c r="Y31" t="n">
-        <v>337.5905067767779</v>
+        <v>143.6592672550055</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1097.359482898605</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="C32" t="n">
-        <v>1097.359482898605</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="D32" t="n">
-        <v>1097.359482898605</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="E32" t="n">
-        <v>820.2485023686545</v>
+        <v>576.1691507178741</v>
       </c>
       <c r="F32" t="n">
-        <v>543.1375218387036</v>
+        <v>299.0581701879231</v>
       </c>
       <c r="G32" t="n">
-        <v>266.0265413087527</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="H32" t="n">
-        <v>29.04350636597547</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I32" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J32" t="n">
         <v>113.9303747440992</v>
@@ -6719,31 +6719,31 @@
         <v>1058.706387144523</v>
       </c>
       <c r="Q32" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="R32" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="U32" t="n">
-        <v>1097.359482898605</v>
+        <v>1078.422213013196</v>
       </c>
       <c r="V32" t="n">
-        <v>1097.359482898605</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="W32" t="n">
-        <v>1097.359482898605</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="X32" t="n">
-        <v>1097.359482898605</v>
+        <v>853.2801312478251</v>
       </c>
       <c r="Y32" t="n">
-        <v>1097.359482898605</v>
+        <v>853.2801312478251</v>
       </c>
     </row>
     <row r="33">
@@ -6765,64 +6765,64 @@
         <v>102.8192919062934</v>
       </c>
       <c r="F33" t="n">
-        <v>62.20553951137782</v>
+        <v>62.20553951137789</v>
       </c>
       <c r="G33" t="n">
-        <v>29.39551967219307</v>
+        <v>29.39551967219311</v>
       </c>
       <c r="H33" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I33" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J33" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="K33" t="n">
-        <v>147.3047497158095</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="L33" t="n">
-        <v>147.3047497158095</v>
+        <v>251.9102955263212</v>
       </c>
       <c r="M33" t="n">
-        <v>394.3661191838875</v>
+        <v>523.5067675437263</v>
       </c>
       <c r="N33" t="n">
-        <v>665.9625912012923</v>
+        <v>795.1032395611312</v>
       </c>
       <c r="O33" t="n">
-        <v>914.7160052852546</v>
+        <v>914.7160052852551</v>
       </c>
       <c r="P33" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="Q33" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="R33" t="n">
-        <v>1097.359482898605</v>
+        <v>1097.359482898606</v>
       </c>
       <c r="S33" t="n">
         <v>1029.862943927474</v>
       </c>
       <c r="T33" t="n">
-        <v>933.5971548644397</v>
+        <v>933.5971548644401</v>
       </c>
       <c r="U33" t="n">
-        <v>811.2943421790285</v>
+        <v>811.2943421790287</v>
       </c>
       <c r="V33" t="n">
-        <v>682.0630395254856</v>
+        <v>682.0630395254858</v>
       </c>
       <c r="W33" t="n">
-        <v>533.7464883754836</v>
+        <v>533.7464883754839</v>
       </c>
       <c r="X33" t="n">
-        <v>431.8157937481507</v>
+        <v>431.8157937481508</v>
       </c>
       <c r="Y33" t="n">
-        <v>329.9763005613964</v>
+        <v>329.9763005613966</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.7941022049206</v>
+        <v>26.41117942472599</v>
       </c>
       <c r="C34" t="n">
-        <v>76.7787248552134</v>
+        <v>26.41117942472599</v>
       </c>
       <c r="D34" t="n">
-        <v>32.58289102107739</v>
+        <v>26.41117942472599</v>
       </c>
       <c r="E34" t="n">
-        <v>21.94718965797211</v>
+        <v>26.41117942472599</v>
       </c>
       <c r="F34" t="n">
-        <v>21.94718965797211</v>
+        <v>26.41117942472599</v>
       </c>
       <c r="G34" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="H34" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="I34" t="n">
-        <v>21.94718965797211</v>
+        <v>21.94718965797212</v>
       </c>
       <c r="J34" t="n">
-        <v>33.33458288965959</v>
+        <v>33.33458288965957</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1007675292291</v>
+        <v>115.100767529229</v>
       </c>
       <c r="L34" t="n">
-        <v>246.2278740841356</v>
+        <v>246.2278740841355</v>
       </c>
       <c r="M34" t="n">
-        <v>389.2288938235513</v>
+        <v>389.2288938235512</v>
       </c>
       <c r="N34" t="n">
-        <v>536.7327260261812</v>
+        <v>536.732726026181</v>
       </c>
       <c r="O34" t="n">
-        <v>664.8849842082741</v>
+        <v>664.8849842082739</v>
       </c>
       <c r="P34" t="n">
-        <v>766.0037394277122</v>
+        <v>766.0037394277119</v>
       </c>
       <c r="Q34" t="n">
-        <v>784.5162981557282</v>
+        <v>784.516298155728</v>
       </c>
       <c r="R34" t="n">
-        <v>784.5162981557282</v>
+        <v>711.352870019615</v>
       </c>
       <c r="S34" t="n">
-        <v>784.5162981557282</v>
+        <v>590.9942836412771</v>
       </c>
       <c r="T34" t="n">
-        <v>784.5162981557282</v>
+        <v>590.9942836412771</v>
       </c>
       <c r="U34" t="n">
-        <v>601.2259629697958</v>
+        <v>407.7039484553446</v>
       </c>
       <c r="V34" t="n">
-        <v>452.4622803421086</v>
+        <v>407.7039484553446</v>
       </c>
       <c r="W34" t="n">
-        <v>452.4622803421086</v>
+        <v>224.2075839965837</v>
       </c>
       <c r="X34" t="n">
-        <v>330.393535022291</v>
+        <v>102.138838676766</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.5217614569606</v>
+        <v>102.138838676766</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>935.2325715953993</v>
+        <v>18.704651431908</v>
       </c>
       <c r="C35" t="n">
-        <v>935.2325715953993</v>
+        <v>18.704651431908</v>
       </c>
       <c r="D35" t="n">
-        <v>699.0627302834298</v>
+        <v>18.704651431908</v>
       </c>
       <c r="E35" t="n">
-        <v>699.0627302834298</v>
+        <v>18.704651431908</v>
       </c>
       <c r="F35" t="n">
-        <v>491.0443340558471</v>
+        <v>18.704651431908</v>
       </c>
       <c r="G35" t="n">
-        <v>254.8744927438775</v>
+        <v>18.704651431908</v>
       </c>
       <c r="H35" t="n">
-        <v>18.70465143190799</v>
+        <v>18.704651431908</v>
       </c>
       <c r="I35" t="n">
-        <v>18.70465143190799</v>
+        <v>18.704651431908</v>
       </c>
       <c r="J35" t="n">
-        <v>18.70465143190799</v>
+        <v>18.704651431908</v>
       </c>
       <c r="K35" t="n">
-        <v>121.7196573428303</v>
+        <v>93.47156510589869</v>
       </c>
       <c r="L35" t="n">
-        <v>301.7955089274889</v>
+        <v>273.5474166905573</v>
       </c>
       <c r="M35" t="n">
-        <v>518.7711361903931</v>
+        <v>490.5230439534615</v>
       </c>
       <c r="N35" t="n">
-        <v>724.6256583976324</v>
+        <v>696.3775661607008</v>
       </c>
       <c r="O35" t="n">
-        <v>873.8206085402804</v>
+        <v>845.5725163033488</v>
       </c>
       <c r="P35" t="n">
-        <v>935.2325715953993</v>
+        <v>935.2325715953998</v>
       </c>
       <c r="Q35" t="n">
-        <v>935.2325715953993</v>
+        <v>935.2325715953998</v>
       </c>
       <c r="R35" t="n">
-        <v>935.2325715953993</v>
+        <v>935.2325715953998</v>
       </c>
       <c r="S35" t="n">
-        <v>935.2325715953993</v>
+        <v>935.2325715953998</v>
       </c>
       <c r="T35" t="n">
-        <v>935.2325715953993</v>
+        <v>935.2325715953998</v>
       </c>
       <c r="U35" t="n">
-        <v>935.2325715953993</v>
+        <v>935.2325715953998</v>
       </c>
       <c r="V35" t="n">
-        <v>935.2325715953993</v>
+        <v>935.2325715953998</v>
       </c>
       <c r="W35" t="n">
-        <v>935.2325715953993</v>
+        <v>727.214175367817</v>
       </c>
       <c r="X35" t="n">
-        <v>935.2325715953993</v>
+        <v>491.0443340558473</v>
       </c>
       <c r="Y35" t="n">
-        <v>935.2325715953993</v>
+        <v>254.8744927438777</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>221.4256268104122</v>
+        <v>234.7861604698651</v>
       </c>
       <c r="C36" t="n">
-        <v>152.8934031074849</v>
+        <v>195.9070071905365</v>
       </c>
       <c r="D36" t="n">
-        <v>152.8934031074849</v>
+        <v>152.893403107485</v>
       </c>
       <c r="E36" t="n">
-        <v>99.57675368022905</v>
+        <v>99.57675368022915</v>
       </c>
       <c r="F36" t="n">
-        <v>58.96300128531372</v>
+        <v>58.96300128531379</v>
       </c>
       <c r="G36" t="n">
-        <v>26.15298144612895</v>
+        <v>26.15298144612899</v>
       </c>
       <c r="H36" t="n">
-        <v>18.70465143190799</v>
+        <v>18.704651431908</v>
       </c>
       <c r="I36" t="n">
-        <v>18.70465143190799</v>
+        <v>18.704651431908</v>
       </c>
       <c r="J36" t="n">
-        <v>18.70465143190799</v>
+        <v>18.704651431908</v>
       </c>
       <c r="K36" t="n">
         <v>144.0622114897454</v>
       </c>
       <c r="L36" t="n">
-        <v>289.6489710423259</v>
+        <v>374.0253173580945</v>
       </c>
       <c r="M36" t="n">
-        <v>289.6489710423259</v>
+        <v>605.495378827956</v>
       </c>
       <c r="N36" t="n">
-        <v>521.1190325121872</v>
+        <v>836.9654402978174</v>
       </c>
       <c r="O36" t="n">
-        <v>752.5890939820486</v>
+        <v>865.8380130820705</v>
       </c>
       <c r="P36" t="n">
-        <v>935.2325715953993</v>
+        <v>865.8380130820705</v>
       </c>
       <c r="Q36" t="n">
-        <v>935.2325715953993</v>
+        <v>935.2325715953998</v>
       </c>
       <c r="R36" t="n">
-        <v>935.2325715953993</v>
+        <v>935.2325715953998</v>
       </c>
       <c r="S36" t="n">
-        <v>867.7360326242679</v>
+        <v>867.7360326242683</v>
       </c>
       <c r="T36" t="n">
-        <v>785.4103179279909</v>
+        <v>771.470243561234</v>
       </c>
       <c r="U36" t="n">
-        <v>663.1075052425797</v>
+        <v>649.1674308758228</v>
       </c>
       <c r="V36" t="n">
-        <v>533.8762025890367</v>
+        <v>649.1674308758228</v>
       </c>
       <c r="W36" t="n">
-        <v>385.5596514390347</v>
+        <v>500.8508797258208</v>
       </c>
       <c r="X36" t="n">
-        <v>385.5596514390347</v>
+        <v>398.9201850984877</v>
       </c>
       <c r="Y36" t="n">
-        <v>283.7201582522805</v>
+        <v>297.0806919117335</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>131.370463050216</v>
+        <v>145.2373865184794</v>
       </c>
       <c r="C37" t="n">
-        <v>131.370463050216</v>
+        <v>145.2373865184794</v>
       </c>
       <c r="D37" t="n">
-        <v>131.370463050216</v>
+        <v>140.4167290289413</v>
       </c>
       <c r="E37" t="n">
-        <v>131.370463050216</v>
+        <v>140.4167290289413</v>
       </c>
       <c r="F37" t="n">
-        <v>131.370463050216</v>
+        <v>140.4167290289413</v>
       </c>
       <c r="G37" t="n">
-        <v>127.7495528358094</v>
+        <v>76.64967666930386</v>
       </c>
       <c r="H37" t="n">
-        <v>69.80452759841361</v>
+        <v>18.704651431908</v>
       </c>
       <c r="I37" t="n">
-        <v>18.70465143190799</v>
+        <v>18.704651431908</v>
       </c>
       <c r="J37" t="n">
-        <v>30.09204466359547</v>
+        <v>30.09204466359546</v>
       </c>
       <c r="K37" t="n">
-        <v>111.858229303165</v>
+        <v>111.8582293031649</v>
       </c>
       <c r="L37" t="n">
-        <v>242.9853358580715</v>
+        <v>242.9853358580714</v>
       </c>
       <c r="M37" t="n">
-        <v>385.9863555974872</v>
+        <v>385.9863555974871</v>
       </c>
       <c r="N37" t="n">
-        <v>533.490187800117</v>
+        <v>533.4901878001169</v>
       </c>
       <c r="O37" t="n">
-        <v>661.6424459822099</v>
+        <v>661.6424459822097</v>
       </c>
       <c r="P37" t="n">
-        <v>762.761201201648</v>
+        <v>762.7612012016477</v>
       </c>
       <c r="Q37" t="n">
-        <v>781.273759929664</v>
+        <v>781.2737599296638</v>
       </c>
       <c r="R37" t="n">
-        <v>708.1103317935512</v>
+        <v>708.1103317935508</v>
       </c>
       <c r="S37" t="n">
-        <v>587.7517454152132</v>
+        <v>587.7517454152129</v>
       </c>
       <c r="T37" t="n">
-        <v>463.4244808638357</v>
+        <v>587.7517454152129</v>
       </c>
       <c r="U37" t="n">
-        <v>280.1341456779032</v>
+        <v>404.4614102292804</v>
       </c>
       <c r="V37" t="n">
-        <v>131.370463050216</v>
+        <v>404.4614102292804</v>
       </c>
       <c r="W37" t="n">
-        <v>131.370463050216</v>
+        <v>220.9650457705195</v>
       </c>
       <c r="X37" t="n">
-        <v>131.370463050216</v>
+        <v>220.9650457705195</v>
       </c>
       <c r="Y37" t="n">
-        <v>131.370463050216</v>
+        <v>220.9650457705195</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>343.059231006306</v>
+        <v>196.3738634474491</v>
       </c>
       <c r="C38" t="n">
-        <v>343.059231006306</v>
+        <v>196.3738634474491</v>
       </c>
       <c r="D38" t="n">
-        <v>343.059231006306</v>
+        <v>196.3738634474491</v>
       </c>
       <c r="E38" t="n">
-        <v>343.059231006306</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="F38" t="n">
-        <v>138.5031232485467</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="G38" t="n">
-        <v>138.5031232485467</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="H38" t="n">
-        <v>138.5031232485467</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="I38" t="n">
-        <v>16.20084373441454</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="J38" t="n">
-        <v>16.20084373441454</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="K38" t="n">
         <v>119.2158496453369</v>
@@ -7181,43 +7181,43 @@
         <v>299.2917012299955</v>
       </c>
       <c r="M38" t="n">
-        <v>499.7771424433755</v>
+        <v>460.3617953646994</v>
       </c>
       <c r="N38" t="n">
-        <v>700.2625836567554</v>
+        <v>660.8472365780796</v>
       </c>
       <c r="O38" t="n">
-        <v>810.042186720727</v>
+        <v>810.0421867207276</v>
       </c>
       <c r="P38" t="n">
-        <v>810.042186720727</v>
+        <v>810.0421867207276</v>
       </c>
       <c r="Q38" t="n">
-        <v>810.042186720727</v>
+        <v>810.0421867207276</v>
       </c>
       <c r="R38" t="n">
-        <v>810.042186720727</v>
+        <v>810.0421867207276</v>
       </c>
       <c r="S38" t="n">
-        <v>810.042186720727</v>
+        <v>810.0421867207276</v>
       </c>
       <c r="T38" t="n">
-        <v>711.2002075079255</v>
+        <v>810.0421867207276</v>
       </c>
       <c r="U38" t="n">
-        <v>547.6153387640654</v>
+        <v>810.0421867207276</v>
       </c>
       <c r="V38" t="n">
-        <v>343.059231006306</v>
+        <v>605.4860789629681</v>
       </c>
       <c r="W38" t="n">
-        <v>343.059231006306</v>
+        <v>400.9299712052086</v>
       </c>
       <c r="X38" t="n">
-        <v>343.059231006306</v>
+        <v>400.9299712052086</v>
       </c>
       <c r="Y38" t="n">
-        <v>343.059231006306</v>
+        <v>196.3738634474491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>128.3154502409025</v>
+        <v>85.13866959702654</v>
       </c>
       <c r="C39" t="n">
-        <v>128.3154502409025</v>
+        <v>85.13866959702654</v>
       </c>
       <c r="D39" t="n">
-        <v>69.68066972249477</v>
+        <v>85.13866959702654</v>
       </c>
       <c r="E39" t="n">
-        <v>69.68066972249477</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="F39" t="n">
-        <v>16.20084373441454</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="G39" t="n">
-        <v>16.20084373441454</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="H39" t="n">
-        <v>16.20084373441454</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="I39" t="n">
-        <v>16.20084373441454</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="J39" t="n">
-        <v>16.20084373441454</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="K39" t="n">
-        <v>16.20084373441454</v>
+        <v>141.558403792252</v>
       </c>
       <c r="L39" t="n">
-        <v>216.6862849477945</v>
+        <v>141.558403792252</v>
       </c>
       <c r="M39" t="n">
-        <v>417.1717261611744</v>
+        <v>157.0332681672872</v>
       </c>
       <c r="N39" t="n">
-        <v>617.6571673745543</v>
+        <v>357.5187093806672</v>
       </c>
       <c r="O39" t="n">
-        <v>740.6476282073977</v>
+        <v>558.0041505940474</v>
       </c>
       <c r="P39" t="n">
-        <v>740.6476282073977</v>
+        <v>740.6476282073983</v>
       </c>
       <c r="Q39" t="n">
-        <v>810.042186720727</v>
+        <v>810.0421867207276</v>
       </c>
       <c r="R39" t="n">
-        <v>810.042186720727</v>
+        <v>810.0421867207276</v>
       </c>
       <c r="S39" t="n">
-        <v>810.042186720727</v>
+        <v>726.92447131424</v>
       </c>
       <c r="T39" t="n">
-        <v>810.042186720727</v>
+        <v>706.857124833308</v>
       </c>
       <c r="U39" t="n">
-        <v>672.1181975999597</v>
+        <v>706.857124833308</v>
       </c>
       <c r="V39" t="n">
-        <v>527.2657185110604</v>
+        <v>562.0046457444089</v>
       </c>
       <c r="W39" t="n">
-        <v>363.3279909257022</v>
+        <v>398.0669181590508</v>
       </c>
       <c r="X39" t="n">
-        <v>245.7761198630129</v>
+        <v>280.5150470963615</v>
       </c>
       <c r="Y39" t="n">
-        <v>128.3154502409025</v>
+        <v>163.0543774742511</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.20084373441454</v>
+        <v>149.5840556766588</v>
       </c>
       <c r="C40" t="n">
-        <v>16.20084373441454</v>
+        <v>149.5840556766588</v>
       </c>
       <c r="D40" t="n">
-        <v>16.20084373441454</v>
+        <v>89.76704540716658</v>
       </c>
       <c r="E40" t="n">
-        <v>16.20084373441454</v>
+        <v>89.76704540716658</v>
       </c>
       <c r="F40" t="n">
-        <v>16.20084373441454</v>
+        <v>89.76704540716658</v>
       </c>
       <c r="G40" t="n">
-        <v>16.20084373441454</v>
+        <v>89.76704540716658</v>
       </c>
       <c r="H40" t="n">
-        <v>16.20084373441454</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="I40" t="n">
-        <v>16.20084373441454</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="J40" t="n">
-        <v>16.20084373441454</v>
+        <v>16.20084373441455</v>
       </c>
       <c r="K40" t="n">
         <v>82.65671334969144</v>
@@ -7357,25 +7357,25 @@
         <v>660.2103538304349</v>
       </c>
       <c r="S40" t="n">
-        <v>588.7170155400522</v>
+        <v>660.2103538304349</v>
       </c>
       <c r="T40" t="n">
-        <v>448.7685745533184</v>
+        <v>604.2292620483871</v>
       </c>
       <c r="U40" t="n">
-        <v>448.7685745533184</v>
+        <v>405.3177504270984</v>
       </c>
       <c r="V40" t="n">
-        <v>284.383715490275</v>
+        <v>240.932891364055</v>
       </c>
       <c r="W40" t="n">
-        <v>284.383715490275</v>
+        <v>240.932891364055</v>
       </c>
       <c r="X40" t="n">
-        <v>146.6937937351011</v>
+        <v>240.932891364055</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.20084373441454</v>
+        <v>240.932891364055</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>311.5277409683537</v>
+        <v>443.4985154224349</v>
       </c>
       <c r="C41" t="n">
-        <v>311.5277409683537</v>
+        <v>293.6679358878285</v>
       </c>
       <c r="D41" t="n">
-        <v>311.5277409683537</v>
+        <v>143.8373563532221</v>
       </c>
       <c r="E41" t="n">
-        <v>161.6971614337472</v>
+        <v>143.8373563532221</v>
       </c>
       <c r="F41" t="n">
-        <v>161.6971614337472</v>
+        <v>11.86658189914083</v>
       </c>
       <c r="G41" t="n">
-        <v>161.6971614337472</v>
+        <v>11.86658189914083</v>
       </c>
       <c r="H41" t="n">
         <v>11.86658189914083</v>
@@ -7418,13 +7418,13 @@
         <v>261.7305388119309</v>
       </c>
       <c r="M41" t="n">
-        <v>261.7305388119309</v>
+        <v>299.6311929533059</v>
       </c>
       <c r="N41" t="n">
-        <v>356.8200886631226</v>
+        <v>446.4801439551736</v>
       </c>
       <c r="O41" t="n">
-        <v>503.6690396649904</v>
+        <v>593.3290949570413</v>
       </c>
       <c r="P41" t="n">
         <v>593.3290949570413</v>
@@ -7433,28 +7433,28 @@
         <v>593.3290949570413</v>
       </c>
       <c r="R41" t="n">
-        <v>522.154161316355</v>
+        <v>593.3290949570413</v>
       </c>
       <c r="S41" t="n">
-        <v>461.3583205029601</v>
+        <v>593.3290949570413</v>
       </c>
       <c r="T41" t="n">
-        <v>461.3583205029601</v>
+        <v>593.3290949570413</v>
       </c>
       <c r="U41" t="n">
-        <v>461.3583205029601</v>
+        <v>593.3290949570413</v>
       </c>
       <c r="V41" t="n">
-        <v>461.3583205029601</v>
+        <v>593.3290949570413</v>
       </c>
       <c r="W41" t="n">
-        <v>461.3583205029601</v>
+        <v>593.3290949570413</v>
       </c>
       <c r="X41" t="n">
-        <v>461.3583205029601</v>
+        <v>593.3290949570413</v>
       </c>
       <c r="Y41" t="n">
-        <v>311.5277409683537</v>
+        <v>593.3290949570413</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>23.67375053221639</v>
+        <v>18.0088449679176</v>
       </c>
       <c r="C42" t="n">
-        <v>23.67375053221639</v>
+        <v>18.0088449679176</v>
       </c>
       <c r="D42" t="n">
-        <v>23.67375053221639</v>
+        <v>18.0088449679176</v>
       </c>
       <c r="E42" t="n">
-        <v>11.86658189914083</v>
+        <v>18.0088449679176</v>
       </c>
       <c r="F42" t="n">
-        <v>11.86658189914083</v>
+        <v>18.0088449679176</v>
       </c>
       <c r="G42" t="n">
-        <v>11.86658189914083</v>
+        <v>18.0088449679176</v>
       </c>
       <c r="H42" t="n">
-        <v>11.86658189914083</v>
+        <v>18.0088449679176</v>
       </c>
       <c r="I42" t="n">
         <v>11.86658189914083</v>
@@ -7491,22 +7491,22 @@
         <v>11.86658189914083</v>
       </c>
       <c r="K42" t="n">
-        <v>11.86658189914083</v>
+        <v>137.2241419569782</v>
       </c>
       <c r="L42" t="n">
-        <v>83.38768343810881</v>
+        <v>137.2241419569782</v>
       </c>
       <c r="M42" t="n">
-        <v>230.2366344399765</v>
+        <v>284.073092958846</v>
       </c>
       <c r="N42" t="n">
-        <v>377.0855854418443</v>
+        <v>284.073092958846</v>
       </c>
       <c r="O42" t="n">
-        <v>377.0855854418443</v>
+        <v>430.9220439607137</v>
       </c>
       <c r="P42" t="n">
-        <v>523.934536443712</v>
+        <v>577.7709949625814</v>
       </c>
       <c r="Q42" t="n">
         <v>593.3290949570413</v>
@@ -7518,22 +7518,22 @@
         <v>593.3290949570413</v>
       </c>
       <c r="T42" t="n">
-        <v>471.3505140904238</v>
+        <v>593.3290949570413</v>
       </c>
       <c r="U42" t="n">
-        <v>323.3349096014292</v>
+        <v>445.3134904680468</v>
       </c>
       <c r="V42" t="n">
-        <v>173.5043300668228</v>
+        <v>295.4829109334404</v>
       </c>
       <c r="W42" t="n">
-        <v>23.67375053221639</v>
+        <v>145.652331398834</v>
       </c>
       <c r="X42" t="n">
-        <v>23.67375053221639</v>
+        <v>18.0088449679176</v>
       </c>
       <c r="Y42" t="n">
-        <v>23.67375053221639</v>
+        <v>18.0088449679176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>261.8169110734296</v>
+        <v>11.86658189914083</v>
       </c>
       <c r="C43" t="n">
-        <v>261.8169110734296</v>
+        <v>11.86658189914083</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8169110734296</v>
+        <v>11.86658189914083</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8169110734296</v>
+        <v>11.86658189914083</v>
       </c>
       <c r="F43" t="n">
-        <v>261.8169110734296</v>
+        <v>11.86658189914083</v>
       </c>
       <c r="G43" t="n">
-        <v>172.3370669102089</v>
+        <v>11.86658189914083</v>
       </c>
       <c r="H43" t="n">
-        <v>88.67924986922975</v>
+        <v>11.86658189914083</v>
       </c>
       <c r="I43" t="n">
         <v>11.86658189914083</v>
@@ -7591,28 +7591,28 @@
         <v>593.3290949570413</v>
       </c>
       <c r="R43" t="n">
-        <v>557.7188687899572</v>
+        <v>593.3290949570413</v>
       </c>
       <c r="S43" t="n">
-        <v>411.647490608036</v>
+        <v>593.3290949570413</v>
       </c>
       <c r="T43" t="n">
-        <v>261.8169110734296</v>
+        <v>461.3583205029601</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8169110734296</v>
+        <v>311.5277409683537</v>
       </c>
       <c r="V43" t="n">
-        <v>261.8169110734296</v>
+        <v>161.6971614337472</v>
       </c>
       <c r="W43" t="n">
-        <v>261.8169110734296</v>
+        <v>11.86658189914083</v>
       </c>
       <c r="X43" t="n">
-        <v>261.8169110734296</v>
+        <v>11.86658189914083</v>
       </c>
       <c r="Y43" t="n">
-        <v>261.8169110734296</v>
+        <v>11.86658189914083</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>89.5485081338912</v>
+        <v>89.54850813389159</v>
       </c>
       <c r="C44" t="n">
-        <v>55.88630424804043</v>
+        <v>55.88630424804069</v>
       </c>
       <c r="D44" t="n">
-        <v>55.88630424804043</v>
+        <v>55.88630424804069</v>
       </c>
       <c r="E44" t="n">
-        <v>55.88630424804043</v>
+        <v>36.32825043361029</v>
       </c>
       <c r="F44" t="n">
-        <v>55.88630424804043</v>
+        <v>36.32825043361029</v>
       </c>
       <c r="G44" t="n">
-        <v>55.88630424804043</v>
+        <v>36.32825043361029</v>
       </c>
       <c r="H44" t="n">
-        <v>48.39823968069351</v>
+        <v>36.32825043361029</v>
       </c>
       <c r="I44" t="n">
-        <v>14.73603579484273</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="J44" t="n">
-        <v>2.666046547759381</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="K44" t="n">
-        <v>35.65837257628172</v>
+        <v>35.65837257628186</v>
       </c>
       <c r="L44" t="n">
-        <v>67.31767533092437</v>
+        <v>35.65837257628186</v>
       </c>
       <c r="M44" t="n">
-        <v>67.31767533092437</v>
+        <v>67.31767533092463</v>
       </c>
       <c r="N44" t="n">
-        <v>67.31767533092437</v>
+        <v>67.31767533092463</v>
       </c>
       <c r="O44" t="n">
-        <v>100.3100013594467</v>
+        <v>100.3100013594471</v>
       </c>
       <c r="P44" t="n">
-        <v>133.3023273879691</v>
+        <v>133.3023273879696</v>
       </c>
       <c r="Q44" t="n">
-        <v>123.210712019742</v>
+        <v>123.2107120197425</v>
       </c>
       <c r="R44" t="n">
-        <v>123.210712019742</v>
+        <v>123.2107120197425</v>
       </c>
       <c r="S44" t="n">
-        <v>89.5485081338912</v>
+        <v>123.2107120197425</v>
       </c>
       <c r="T44" t="n">
-        <v>89.5485081338912</v>
+        <v>123.2107120197425</v>
       </c>
       <c r="U44" t="n">
-        <v>89.5485081338912</v>
+        <v>123.2107120197425</v>
       </c>
       <c r="V44" t="n">
-        <v>89.5485081338912</v>
+        <v>123.2107120197425</v>
       </c>
       <c r="W44" t="n">
-        <v>89.5485081338912</v>
+        <v>123.2107120197425</v>
       </c>
       <c r="X44" t="n">
-        <v>89.5485081338912</v>
+        <v>89.54850813389159</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.5485081338912</v>
+        <v>89.54850813389159</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>65.97791961626751</v>
+        <v>36.32825043361029</v>
       </c>
       <c r="C45" t="n">
-        <v>65.97791961626751</v>
+        <v>36.32825043361029</v>
       </c>
       <c r="D45" t="n">
-        <v>65.97791961626751</v>
+        <v>36.32825043361029</v>
       </c>
       <c r="E45" t="n">
-        <v>65.97791961626751</v>
+        <v>36.32825043361029</v>
       </c>
       <c r="F45" t="n">
-        <v>36.32825043361015</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="G45" t="n">
-        <v>2.666046547759381</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="H45" t="n">
-        <v>2.666046547759381</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="I45" t="n">
-        <v>2.666046547759381</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="J45" t="n">
-        <v>2.666046547759381</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="K45" t="n">
-        <v>35.65837257628172</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="L45" t="n">
-        <v>67.31767533092437</v>
+        <v>35.65837257628186</v>
       </c>
       <c r="M45" t="n">
-        <v>67.31767533092437</v>
+        <v>67.31767533092463</v>
       </c>
       <c r="N45" t="n">
-        <v>100.3100013594467</v>
+        <v>100.3100013594471</v>
       </c>
       <c r="O45" t="n">
-        <v>100.3100013594467</v>
+        <v>100.3100013594471</v>
       </c>
       <c r="P45" t="n">
-        <v>133.3023273879691</v>
+        <v>133.3023273879696</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.3023273879691</v>
+        <v>133.3023273879696</v>
       </c>
       <c r="R45" t="n">
-        <v>99.64012350211829</v>
+        <v>103.6526582053121</v>
       </c>
       <c r="S45" t="n">
-        <v>99.64012350211829</v>
+        <v>69.99045431946119</v>
       </c>
       <c r="T45" t="n">
-        <v>99.64012350211829</v>
+        <v>69.99045431946119</v>
       </c>
       <c r="U45" t="n">
-        <v>99.64012350211829</v>
+        <v>69.99045431946119</v>
       </c>
       <c r="V45" t="n">
-        <v>99.64012350211829</v>
+        <v>69.99045431946119</v>
       </c>
       <c r="W45" t="n">
-        <v>99.64012350211829</v>
+        <v>69.99045431946119</v>
       </c>
       <c r="X45" t="n">
-        <v>99.64012350211829</v>
+        <v>69.99045431946119</v>
       </c>
       <c r="Y45" t="n">
-        <v>65.97791961626751</v>
+        <v>36.32825043361029</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120.3041002474163</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="C46" t="n">
-        <v>120.3041002474163</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="D46" t="n">
-        <v>103.6526582053117</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="E46" t="n">
-        <v>69.99045431946092</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="F46" t="n">
-        <v>36.32825043361015</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="G46" t="n">
-        <v>2.666046547759381</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="H46" t="n">
-        <v>2.666046547759381</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="I46" t="n">
-        <v>2.666046547759381</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="J46" t="n">
-        <v>2.666046547759381</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="K46" t="n">
-        <v>2.666046547759381</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="L46" t="n">
-        <v>29.98017155547236</v>
+        <v>29.98017155547237</v>
       </c>
       <c r="M46" t="n">
-        <v>62.9724975839947</v>
+        <v>62.97249758399484</v>
       </c>
       <c r="N46" t="n">
-        <v>95.96482361251705</v>
+        <v>95.96482361251731</v>
       </c>
       <c r="O46" t="n">
-        <v>120.3041002474163</v>
+        <v>120.3041002474166</v>
       </c>
       <c r="P46" t="n">
-        <v>120.3041002474163</v>
+        <v>120.3041002474166</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.3041002474163</v>
+        <v>120.3041002474166</v>
       </c>
       <c r="R46" t="n">
-        <v>120.3041002474163</v>
+        <v>120.3041002474166</v>
       </c>
       <c r="S46" t="n">
-        <v>120.3041002474163</v>
+        <v>120.3041002474166</v>
       </c>
       <c r="T46" t="n">
-        <v>120.3041002474163</v>
+        <v>120.3041002474166</v>
       </c>
       <c r="U46" t="n">
-        <v>120.3041002474163</v>
+        <v>86.64189636156568</v>
       </c>
       <c r="V46" t="n">
-        <v>120.3041002474163</v>
+        <v>52.97969247571478</v>
       </c>
       <c r="W46" t="n">
-        <v>120.3041002474163</v>
+        <v>19.31748858986388</v>
       </c>
       <c r="X46" t="n">
-        <v>120.3041002474163</v>
+        <v>2.666046547759391</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.3041002474163</v>
+        <v>2.666046547759391</v>
       </c>
     </row>
   </sheetData>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>260.6215788707821</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>274.6604972270695</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>269.240315484355</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>269.9447914223924</v>
       </c>
       <c r="O11" t="n">
         <v>270.6299392474882</v>
@@ -8775,10 +8775,10 @@
         <v>179.0861076056757</v>
       </c>
       <c r="M12" t="n">
-        <v>181.0281161791006</v>
+        <v>182.6657617478198</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>170.2357943404156</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8787,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.513501911823</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,10 +8927,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>291.9191750894501</v>
+        <v>289.0169801785624</v>
       </c>
       <c r="L14" t="n">
-        <v>304.6935441035691</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
         <v>302.1755572717423</v>
@@ -8942,7 +8942,7 @@
         <v>301.9275354661563</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>303.0623197997391</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>206.7685681079409</v>
+        <v>209.6707630188286</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>210.3837038243437</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>213.9633579664879</v>
       </c>
       <c r="N15" t="n">
-        <v>203.1710361278029</v>
+        <v>200.2688412169152</v>
       </c>
       <c r="O15" t="n">
-        <v>214.425568488914</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>205.8037314587998</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9167,16 +9167,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>288.0691189585584</v>
       </c>
       <c r="M17" t="n">
-        <v>356.3538302126638</v>
+        <v>356.3538302126639</v>
       </c>
       <c r="N17" t="n">
-        <v>281.7157675851619</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>356.1058084070777</v>
+        <v>356.1058084070779</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>263.8490359597501</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>264.5619767652653</v>
       </c>
       <c r="M18" t="n">
-        <v>268.1416309074093</v>
+        <v>263.0504148675957</v>
       </c>
       <c r="N18" t="n">
-        <v>182.162579379083</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>268.6038414298354</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>259.9820043997212</v>
+        <v>259.9820043997213</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,13 +9483,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>349.0484638974528</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3952459500868</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4739046466697</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6815828079847</v>
+        <v>405.6815828079848</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>157.2527474190812</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4739046466697</v>
+        <v>416.4739046466698</v>
       </c>
       <c r="N27" t="n">
-        <v>148.6126854163928</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>157.2527474190812</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.5669008034443</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4739046466697</v>
+        <v>286.0288052932976</v>
       </c>
       <c r="N30" t="n">
-        <v>405.6815828079847</v>
+        <v>405.6815828079848</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>391.6909727786627</v>
+        <v>416.4739046466698</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6815828079847</v>
+        <v>405.6815828079848</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>263.4172199233574</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>295.6119860692136</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>293.2652816695311</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>285.6117126612687</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>375.9421768208683</v>
       </c>
       <c r="N36" t="n">
-        <v>365.1498549821831</v>
+        <v>365.1498549821832</v>
       </c>
       <c r="O36" t="n">
-        <v>376.4043873432943</v>
+        <v>171.7604593780334</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>432.8567799074545</v>
+        <v>393.043298009802</v>
       </c>
       <c r="N38" t="n">
-        <v>431.9236102767727</v>
+        <v>431.9236102767728</v>
       </c>
       <c r="O38" t="n">
-        <v>340.9866993650924</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>231.2329957552695</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>341.064926460056</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>344.6445806022001</v>
+        <v>157.7652100584175</v>
       </c>
       <c r="N39" t="n">
-        <v>333.8522587635151</v>
+        <v>333.8522587635152</v>
       </c>
       <c r="O39" t="n">
-        <v>266.8290331644882</v>
+        <v>345.1067911246263</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,16 +11066,16 @@
         <v>384.0986887092475</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>268.6297222589646</v>
       </c>
       <c r="N41" t="n">
-        <v>325.4631139513301</v>
+        <v>377.7453373358512</v>
       </c>
       <c r="O41" t="n">
         <v>378.4304851609471</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>210.7979166879227</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>290.4663076612786</v>
       </c>
       <c r="N42" t="n">
-        <v>279.6739858225936</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>290.9285181837048</v>
       </c>
       <c r="P42" t="n">
         <v>282.3066811535906</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>155.697026605678</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>253.4154328919728</v>
+        <v>253.415432891973</v>
       </c>
       <c r="L44" t="n">
-        <v>267.7455086615455</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>262.3253269188311</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>263.423793268679</v>
+        <v>263.4237932686791</v>
       </c>
       <c r="P44" t="n">
-        <v>264.5585776022618</v>
+        <v>264.5585776022619</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>171.1670208213513</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>170.5334734714324</v>
+        <v>171.8799616268666</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>174.1131276135767</v>
       </c>
       <c r="N45" t="n">
-        <v>164.6672939303256</v>
+        <v>164.6672939303257</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>167.2999892613225</v>
+        <v>167.2999892613227</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11461,10 +11461,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>172.2513657945973</v>
+        <v>172.2513657945975</v>
       </c>
       <c r="N46" t="n">
-        <v>161.0111263122255</v>
+        <v>161.0111263122256</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.2114146231343</v>
+        <v>372.7431424489358</v>
       </c>
       <c r="C11" t="n">
-        <v>319.5818466874968</v>
+        <v>355.2821925564627</v>
       </c>
       <c r="D11" t="n">
         <v>344.6923424061382</v>
       </c>
       <c r="E11" t="n">
-        <v>371.939670857717</v>
+        <v>331.4079430319155</v>
       </c>
       <c r="F11" t="n">
-        <v>396.8853465271666</v>
+        <v>356.3536187013651</v>
       </c>
       <c r="G11" t="n">
-        <v>405.3120383005902</v>
+        <v>364.7803104747887</v>
       </c>
       <c r="H11" t="n">
-        <v>288.9523750754208</v>
+        <v>293.7837570322564</v>
       </c>
       <c r="I11" t="n">
         <v>200.4851903558611</v>
@@ -23315,7 +23315,7 @@
         <v>241.3549536932917</v>
       </c>
       <c r="V11" t="n">
-        <v>277.2298314297886</v>
+        <v>317.7615592555901</v>
       </c>
       <c r="W11" t="n">
         <v>339.2502695028682</v>
@@ -23337,16 +23337,16 @@
         <v>116.0107566095211</v>
       </c>
       <c r="C12" t="n">
-        <v>162.7177997737709</v>
+        <v>127.017453904805</v>
       </c>
       <c r="D12" t="n">
         <v>137.4543663500939</v>
       </c>
       <c r="E12" t="n">
-        <v>107.1226534150547</v>
+        <v>147.6543812408561</v>
       </c>
       <c r="F12" t="n">
-        <v>99.37816730987313</v>
+        <v>94.54678535303759</v>
       </c>
       <c r="G12" t="n">
         <v>86.82109012286435</v>
@@ -23461,7 +23461,7 @@
         <v>76.17134403714958</v>
       </c>
       <c r="R13" t="n">
-        <v>167.3026921626247</v>
+        <v>126.7709643368232</v>
       </c>
       <c r="S13" t="n">
         <v>173.494170996626</v>
@@ -23470,16 +23470,16 @@
         <v>177.4231623879352</v>
       </c>
       <c r="U13" t="n">
-        <v>240.6279842729801</v>
+        <v>276.3283301419461</v>
       </c>
       <c r="V13" t="n">
-        <v>201.6152162834817</v>
+        <v>242.1469441092832</v>
       </c>
       <c r="W13" t="n">
         <v>276.5322991220462</v>
       </c>
       <c r="X13" t="n">
-        <v>215.7189561744923</v>
+        <v>180.0186103055264</v>
       </c>
       <c r="Y13" t="n">
         <v>208.59395413755</v>
@@ -23501,16 +23501,16 @@
         <v>325.5195056912202</v>
       </c>
       <c r="E14" t="n">
-        <v>352.766834142799</v>
+        <v>280.9375100983294</v>
       </c>
       <c r="F14" t="n">
-        <v>377.7125098122486</v>
+        <v>305.8831857677791</v>
       </c>
       <c r="G14" t="n">
-        <v>386.1392015856723</v>
+        <v>314.3098775412027</v>
       </c>
       <c r="H14" t="n">
-        <v>310.3112661863044</v>
+        <v>247.0439975679355</v>
       </c>
       <c r="I14" t="n">
         <v>181.3123536409431</v>
@@ -23543,19 +23543,19 @@
         <v>120.7055820116869</v>
       </c>
       <c r="S14" t="n">
-        <v>108.027209612313</v>
+        <v>179.8565336567825</v>
       </c>
       <c r="T14" t="n">
         <v>193.9323136346686</v>
       </c>
       <c r="U14" t="n">
-        <v>150.3527929339041</v>
+        <v>222.1821169783737</v>
       </c>
       <c r="V14" t="n">
-        <v>226.7593984962026</v>
+        <v>298.5887225406721</v>
       </c>
       <c r="W14" t="n">
-        <v>256.8101641695814</v>
+        <v>320.0774327879502</v>
       </c>
       <c r="X14" t="n">
         <v>340.5675647490062</v>
@@ -23577,22 +23577,22 @@
         <v>143.5449630588529</v>
       </c>
       <c r="D15" t="n">
-        <v>46.4522055907064</v>
+        <v>118.281529635176</v>
       </c>
       <c r="E15" t="n">
         <v>128.4815445259381</v>
       </c>
       <c r="F15" t="n">
-        <v>44.07635241945152</v>
+        <v>115.9056764639211</v>
       </c>
       <c r="G15" t="n">
         <v>108.1799812337478</v>
       </c>
       <c r="H15" t="n">
-        <v>80.03773661061713</v>
+        <v>83.07190830703367</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>60.23309692195228</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,19 +23622,19 @@
         <v>70.99429822318034</v>
       </c>
       <c r="S15" t="n">
-        <v>142.519635174375</v>
+        <v>70.69031112990547</v>
       </c>
       <c r="T15" t="n">
-        <v>171.0011927653588</v>
+        <v>99.17186872088925</v>
       </c>
       <c r="U15" t="n">
-        <v>196.777846151512</v>
+        <v>124.9485221070425</v>
       </c>
       <c r="V15" t="n">
-        <v>203.6370512199625</v>
+        <v>140.3697826015937</v>
       </c>
       <c r="W15" t="n">
-        <v>150.7021231869873</v>
+        <v>222.5314472314568</v>
       </c>
       <c r="X15" t="n">
         <v>176.6094492740147</v>
@@ -23659,13 +23659,13 @@
         <v>119.4519370887496</v>
       </c>
       <c r="E16" t="n">
-        <v>117.2704267171064</v>
+        <v>45.44110267263682</v>
       </c>
       <c r="F16" t="n">
-        <v>116.2575120934684</v>
+        <v>52.99024347509964</v>
       </c>
       <c r="G16" t="n">
-        <v>138.827443428996</v>
+        <v>66.9981193845264</v>
       </c>
       <c r="H16" t="n">
         <v>133.0636365779768</v>
@@ -23674,7 +23674,7 @@
         <v>126.2869389977955</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9283755688411688</v>
+        <v>64.19564418720998</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>56.99850732223159</v>
       </c>
       <c r="R16" t="n">
-        <v>76.30053140323713</v>
+        <v>148.1298554477067</v>
       </c>
       <c r="S16" t="n">
-        <v>123.0237380630399</v>
+        <v>194.8530621075095</v>
       </c>
       <c r="T16" t="n">
-        <v>126.9527294543491</v>
+        <v>198.7820534988187</v>
       </c>
       <c r="U16" t="n">
-        <v>257.1554934270281</v>
+        <v>185.3261693825585</v>
       </c>
       <c r="V16" t="n">
         <v>222.9741073943652</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.5703057340179</v>
+        <v>353.5703057340177</v>
       </c>
       <c r="C17" t="n">
-        <v>336.1093558415449</v>
+        <v>210.1017588561536</v>
       </c>
       <c r="D17" t="n">
-        <v>325.5195056912203</v>
+        <v>325.5195056912201</v>
       </c>
       <c r="E17" t="n">
-        <v>352.7668341427991</v>
+        <v>352.7668341427989</v>
       </c>
       <c r="F17" t="n">
-        <v>377.7125098122488</v>
+        <v>377.7125098122486</v>
       </c>
       <c r="G17" t="n">
-        <v>260.1316046002814</v>
+        <v>386.1392015856722</v>
       </c>
       <c r="H17" t="n">
-        <v>184.3036692009135</v>
+        <v>310.3112661863043</v>
       </c>
       <c r="I17" t="n">
-        <v>181.3123536409432</v>
+        <v>181.3123536409431</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>120.705582011687</v>
+        <v>120.7055820116868</v>
       </c>
       <c r="S17" t="n">
-        <v>68.86904223205029</v>
+        <v>68.86904223205001</v>
       </c>
       <c r="T17" t="n">
-        <v>67.92471664927766</v>
+        <v>193.9323136346685</v>
       </c>
       <c r="U17" t="n">
-        <v>222.1821169783738</v>
+        <v>96.17451999298252</v>
       </c>
       <c r="V17" t="n">
-        <v>298.5887225406722</v>
+        <v>172.5811255552809</v>
       </c>
       <c r="W17" t="n">
-        <v>320.0774327879503</v>
+        <v>320.0774327879502</v>
       </c>
       <c r="X17" t="n">
-        <v>340.5675647490064</v>
+        <v>340.5675647490062</v>
       </c>
       <c r="Y17" t="n">
-        <v>357.0744027265909</v>
+        <v>357.0744027265907</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>137.3696477204046</v>
+        <v>137.3696477204045</v>
       </c>
       <c r="C18" t="n">
-        <v>17.53736607346204</v>
+        <v>143.5449630588529</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>118.2815296351759</v>
       </c>
       <c r="E18" t="n">
-        <v>9.767985750990945</v>
+        <v>128.4815445259381</v>
       </c>
       <c r="F18" t="n">
-        <v>115.9056764639212</v>
+        <v>115.905676463921</v>
       </c>
       <c r="G18" t="n">
-        <v>108.1799812337479</v>
+        <v>108.1799812337478</v>
       </c>
       <c r="H18" t="n">
-        <v>83.07190830703377</v>
+        <v>83.0719083070336</v>
       </c>
       <c r="I18" t="n">
-        <v>60.23309692195237</v>
+        <v>60.23309692195221</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>70.99429822318044</v>
+        <v>70.99429822318027</v>
       </c>
       <c r="S18" t="n">
-        <v>142.5196351743751</v>
+        <v>31.53214374964251</v>
       </c>
       <c r="T18" t="n">
-        <v>171.0011927653589</v>
+        <v>44.99359577996761</v>
       </c>
       <c r="U18" t="n">
-        <v>196.7778461515121</v>
+        <v>196.7778461515119</v>
       </c>
       <c r="V18" t="n">
-        <v>203.6370512199626</v>
+        <v>203.6370512199624</v>
       </c>
       <c r="W18" t="n">
-        <v>222.5314472314569</v>
+        <v>96.52385024606563</v>
       </c>
       <c r="X18" t="n">
-        <v>176.6094492740148</v>
+        <v>50.60185228862348</v>
       </c>
       <c r="Y18" t="n">
-        <v>50.51156286245066</v>
+        <v>176.5191598478415</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.6608472670836</v>
+        <v>150.6684442524744</v>
       </c>
       <c r="C19" t="n">
-        <v>12.07568818377413</v>
+        <v>138.083285169165</v>
       </c>
       <c r="D19" t="n">
-        <v>119.4519370887496</v>
+        <v>119.4519370887495</v>
       </c>
       <c r="E19" t="n">
-        <v>117.2704267171065</v>
+        <v>117.2704267171063</v>
       </c>
       <c r="F19" t="n">
-        <v>116.2575120934685</v>
+        <v>116.2575120934684</v>
       </c>
       <c r="G19" t="n">
-        <v>138.827443428996</v>
+        <v>110.6501934306365</v>
       </c>
       <c r="H19" t="n">
-        <v>133.0636365779769</v>
+        <v>7.056039592585577</v>
       </c>
       <c r="I19" t="n">
-        <v>126.2869389977956</v>
+        <v>126.2869389977954</v>
       </c>
       <c r="J19" t="n">
-        <v>64.19564418721006</v>
+        <v>64.19564418720991</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.99850732223168</v>
+        <v>56.99850732223152</v>
       </c>
       <c r="R19" t="n">
-        <v>148.1298554477068</v>
+        <v>22.12225846231551</v>
       </c>
       <c r="S19" t="n">
-        <v>194.8530621075095</v>
+        <v>194.8530621075094</v>
       </c>
       <c r="T19" t="n">
-        <v>198.7820534988188</v>
+        <v>198.7820534988186</v>
       </c>
       <c r="U19" t="n">
-        <v>257.1554934270282</v>
+        <v>257.155493427028</v>
       </c>
       <c r="V19" t="n">
-        <v>222.9741073943653</v>
+        <v>222.9741073943651</v>
       </c>
       <c r="W19" t="n">
-        <v>257.3594624071283</v>
+        <v>257.3594624071281</v>
       </c>
       <c r="X19" t="n">
-        <v>196.5461194595744</v>
+        <v>196.5461194595743</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.2438674242733</v>
+        <v>189.4211174226319</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.5703057340179</v>
+        <v>112.5560168563587</v>
       </c>
       <c r="C20" t="n">
-        <v>95.09506696388581</v>
+        <v>95.09506696388564</v>
       </c>
       <c r="D20" t="n">
-        <v>113.2341200477782</v>
+        <v>325.5195056912201</v>
       </c>
       <c r="E20" t="n">
-        <v>352.7668341427991</v>
+        <v>352.7668341427989</v>
       </c>
       <c r="F20" t="n">
-        <v>377.7125098122488</v>
+        <v>136.6982209345895</v>
       </c>
       <c r="G20" t="n">
-        <v>145.1249127080133</v>
+        <v>386.1392015856722</v>
       </c>
       <c r="H20" t="n">
-        <v>69.29697730864541</v>
+        <v>310.3112661863043</v>
       </c>
       <c r="I20" t="n">
-        <v>181.3123536409432</v>
+        <v>181.3123536409431</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>120.705582011687</v>
+        <v>120.7055820116868</v>
       </c>
       <c r="S20" t="n">
-        <v>179.8565336567826</v>
+        <v>179.8565336567825</v>
       </c>
       <c r="T20" t="n">
-        <v>193.9323136346686</v>
+        <v>193.9323136346685</v>
       </c>
       <c r="U20" t="n">
-        <v>222.1821169783738</v>
+        <v>222.1821169783736</v>
       </c>
       <c r="V20" t="n">
-        <v>298.5887225406722</v>
+        <v>298.5887225406721</v>
       </c>
       <c r="W20" t="n">
-        <v>320.0774327879503</v>
+        <v>107.7920471445082</v>
       </c>
       <c r="X20" t="n">
-        <v>340.5675647490064</v>
+        <v>340.5675647490062</v>
       </c>
       <c r="Y20" t="n">
-        <v>357.0744027265909</v>
+        <v>357.0744027265907</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>137.3696477204046</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>118.281529635176</v>
+        <v>61.3837182497292</v>
       </c>
       <c r="E21" t="n">
-        <v>128.4815445259382</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>115.9056764639212</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>108.1799812337479</v>
+        <v>108.1799812337478</v>
       </c>
       <c r="H21" t="n">
-        <v>83.07190830703377</v>
+        <v>83.0719083070336</v>
       </c>
       <c r="I21" t="n">
-        <v>35.36974312672881</v>
+        <v>60.23309692195221</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>70.99429822318044</v>
+        <v>70.99429822318027</v>
       </c>
       <c r="S21" t="n">
-        <v>142.5196351743751</v>
+        <v>142.519635174375</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>171.0011927653587</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>196.7778461515119</v>
       </c>
       <c r="V21" t="n">
-        <v>203.6370512199626</v>
+        <v>203.6370512199624</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>222.5314472314568</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.5191598478416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>150.6684442524746</v>
+        <v>150.6684442524744</v>
       </c>
       <c r="C22" t="n">
-        <v>138.0832851691651</v>
+        <v>138.083285169165</v>
       </c>
       <c r="D22" t="n">
-        <v>119.4519370887496</v>
+        <v>119.4519370887495</v>
       </c>
       <c r="E22" t="n">
-        <v>117.2704267171065</v>
+        <v>117.2704267171063</v>
       </c>
       <c r="F22" t="n">
-        <v>116.2575120934685</v>
+        <v>116.2575120934684</v>
       </c>
       <c r="G22" t="n">
-        <v>138.827443428996</v>
+        <v>138.8274434289959</v>
       </c>
       <c r="H22" t="n">
-        <v>133.0636365779769</v>
+        <v>133.0636365779767</v>
       </c>
       <c r="I22" t="n">
-        <v>87.10878390631389</v>
+        <v>126.2869389977954</v>
       </c>
       <c r="J22" t="n">
-        <v>64.19564418721006</v>
+        <v>64.19564418720991</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.99850732223168</v>
+        <v>56.99850732223152</v>
       </c>
       <c r="R22" t="n">
-        <v>148.1298554477068</v>
+        <v>148.1298554477066</v>
       </c>
       <c r="S22" t="n">
-        <v>194.8530621075095</v>
+        <v>194.8530621075094</v>
       </c>
       <c r="T22" t="n">
-        <v>198.7820534988188</v>
+        <v>198.7820534988186</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14120454936915</v>
+        <v>257.155493427028</v>
       </c>
       <c r="V22" t="n">
-        <v>222.9741073943653</v>
+        <v>183.7959523028825</v>
       </c>
       <c r="W22" t="n">
-        <v>257.3594624071283</v>
+        <v>16.34517352946909</v>
       </c>
       <c r="X22" t="n">
-        <v>196.5461194595744</v>
+        <v>196.5461194595743</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.4211174226321</v>
+        <v>189.4211174226319</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>338.1053410630153</v>
+        <v>96.46678292874219</v>
       </c>
       <c r="C23" t="n">
-        <v>320.6443911705422</v>
+        <v>320.6443911705421</v>
       </c>
       <c r="D23" t="n">
-        <v>310.0545410202176</v>
+        <v>35.71467029556601</v>
       </c>
       <c r="E23" t="n">
-        <v>337.3018694717965</v>
+        <v>337.3018694717963</v>
       </c>
       <c r="F23" t="n">
-        <v>362.2475451412461</v>
+        <v>87.90767441659449</v>
       </c>
       <c r="G23" t="n">
-        <v>370.6742369146697</v>
+        <v>370.6742369146696</v>
       </c>
       <c r="H23" t="n">
-        <v>20.50643079065048</v>
+        <v>20.5064307906502</v>
       </c>
       <c r="I23" t="n">
-        <v>165.8473889699406</v>
+        <v>165.8473889699404</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>105.2406173406842</v>
       </c>
       <c r="S23" t="n">
-        <v>164.39156898578</v>
+        <v>164.3915689857799</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>178.4673489636659</v>
       </c>
       <c r="U23" t="n">
-        <v>206.7171523073712</v>
+        <v>206.717152307371</v>
       </c>
       <c r="V23" t="n">
-        <v>50.85329531509583</v>
+        <v>283.1237578696694</v>
       </c>
       <c r="W23" t="n">
-        <v>304.6124681169477</v>
+        <v>304.6124681169475</v>
       </c>
       <c r="X23" t="n">
-        <v>325.1026000780037</v>
+        <v>325.1026000780035</v>
       </c>
       <c r="Y23" t="n">
-        <v>67.26956733093692</v>
+        <v>341.6094380555881</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>121.904683049402</v>
+        <v>121.9046830494019</v>
       </c>
       <c r="C24" t="n">
-        <v>1.422123617865253</v>
+        <v>128.0799983878503</v>
       </c>
       <c r="D24" t="n">
-        <v>102.8165649641734</v>
+        <v>102.8165649641733</v>
       </c>
       <c r="E24" t="n">
-        <v>113.0165798549356</v>
+        <v>113.0165798549355</v>
       </c>
       <c r="F24" t="n">
-        <v>100.4407117929185</v>
+        <v>100.4407117929184</v>
       </c>
       <c r="G24" t="n">
-        <v>92.71501656274529</v>
+        <v>92.71501656274516</v>
       </c>
       <c r="H24" t="n">
-        <v>67.60694363603113</v>
+        <v>67.60694363603099</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>44.76813225094961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>55.5293335521778</v>
+        <v>16.67596411709671</v>
       </c>
       <c r="S24" t="n">
-        <v>127.0546705033725</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>155.5362280943561</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>161.054195176839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>135.203479581472</v>
+        <v>135.2034795814718</v>
       </c>
       <c r="C25" t="n">
-        <v>122.6183204981625</v>
+        <v>122.6183204981624</v>
       </c>
       <c r="D25" t="n">
-        <v>103.986972417747</v>
+        <v>103.9869724177469</v>
       </c>
       <c r="E25" t="n">
-        <v>101.8054620461038</v>
+        <v>101.8054620461037</v>
       </c>
       <c r="F25" t="n">
-        <v>100.7925474224659</v>
+        <v>100.7925474224658</v>
       </c>
       <c r="G25" t="n">
-        <v>123.3624787579934</v>
+        <v>123.3624787579933</v>
       </c>
       <c r="H25" t="n">
-        <v>117.5986719069742</v>
+        <v>117.5986719069741</v>
       </c>
       <c r="I25" t="n">
-        <v>110.8219743267929</v>
+        <v>110.8219743267928</v>
       </c>
       <c r="J25" t="n">
-        <v>48.73067951620744</v>
+        <v>48.7306795162073</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.53354265122905</v>
+        <v>41.53354265122891</v>
       </c>
       <c r="R25" t="n">
-        <v>132.6648907767041</v>
+        <v>132.664890776704</v>
       </c>
       <c r="S25" t="n">
-        <v>179.3880974365069</v>
+        <v>179.3880974365068</v>
       </c>
       <c r="T25" t="n">
-        <v>183.3170888278161</v>
+        <v>183.317088827816</v>
       </c>
       <c r="U25" t="n">
-        <v>51.63596833115855</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>207.5091427233627</v>
+        <v>207.5091427233625</v>
       </c>
       <c r="W25" t="n">
-        <v>241.8944977361257</v>
+        <v>112.4493112787113</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>181.0811547885717</v>
       </c>
       <c r="Y25" t="n">
-        <v>173.9561527516294</v>
+        <v>173.9561527516293</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>338.1053410630153</v>
+        <v>338.1053410630151</v>
       </c>
       <c r="C26" t="n">
-        <v>320.6443911705422</v>
+        <v>320.6443911705421</v>
       </c>
       <c r="D26" t="n">
-        <v>35.71467029556629</v>
+        <v>310.0545410202175</v>
       </c>
       <c r="E26" t="n">
-        <v>95.66331133752368</v>
+        <v>62.96199874714483</v>
       </c>
       <c r="F26" t="n">
-        <v>362.2475451412461</v>
+        <v>87.90767441659449</v>
       </c>
       <c r="G26" t="n">
-        <v>96.33436619001839</v>
+        <v>96.3343661900181</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8463015153018</v>
+        <v>294.8463015153017</v>
       </c>
       <c r="I26" t="n">
-        <v>165.8473889699406</v>
+        <v>165.8473889699404</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>105.2406173406843</v>
+        <v>105.2406173406842</v>
       </c>
       <c r="S26" t="n">
-        <v>164.39156898578</v>
+        <v>164.3915689857799</v>
       </c>
       <c r="T26" t="n">
-        <v>178.467348963666</v>
+        <v>178.4673489636659</v>
       </c>
       <c r="U26" t="n">
-        <v>206.7171523073712</v>
+        <v>206.717152307371</v>
       </c>
       <c r="V26" t="n">
-        <v>8.783887145018241</v>
+        <v>41.48519973539652</v>
       </c>
       <c r="W26" t="n">
-        <v>304.6124681169477</v>
+        <v>304.6124681169475</v>
       </c>
       <c r="X26" t="n">
-        <v>325.1026000780037</v>
+        <v>325.1026000780035</v>
       </c>
       <c r="Y26" t="n">
-        <v>341.6094380555883</v>
+        <v>341.6094380555881</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>121.904683049402</v>
+        <v>121.9046830494019</v>
       </c>
       <c r="C27" t="n">
-        <v>128.0799983878504</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>102.8165649641734</v>
+        <v>102.8165649641733</v>
       </c>
       <c r="E27" t="n">
-        <v>113.0165798549356</v>
+        <v>113.0165798549355</v>
       </c>
       <c r="F27" t="n">
-        <v>100.4407117929185</v>
+        <v>61.79014583807968</v>
       </c>
       <c r="G27" t="n">
-        <v>92.71501656274529</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>67.60694363603113</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>44.76813225094974</v>
+        <v>44.76813225094961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>11.15799703461533</v>
+        <v>55.52933355217766</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>127.0546705033723</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>155.5362280943561</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24585,10 +24585,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>161.144484603012</v>
       </c>
       <c r="Y27" t="n">
-        <v>161.054195176839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>135.203479581472</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>122.6183204981625</v>
+        <v>122.6183204981624</v>
       </c>
       <c r="D28" t="n">
-        <v>103.986972417747</v>
+        <v>103.9869724177469</v>
       </c>
       <c r="E28" t="n">
-        <v>101.8054620461038</v>
+        <v>101.8054620461037</v>
       </c>
       <c r="F28" t="n">
-        <v>100.7925474224659</v>
+        <v>100.7925474224658</v>
       </c>
       <c r="G28" t="n">
-        <v>123.3624787579934</v>
+        <v>123.3624787579933</v>
       </c>
       <c r="H28" t="n">
-        <v>117.5986719069742</v>
+        <v>117.5986719069741</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.8219743267928</v>
       </c>
       <c r="J28" t="n">
-        <v>48.73067951620744</v>
+        <v>48.7306795162073</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.53354265122905</v>
+        <v>41.53354265122891</v>
       </c>
       <c r="R28" t="n">
-        <v>132.6648907767041</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>179.3880974365069</v>
+        <v>179.3880974365068</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>183.317088827816</v>
       </c>
       <c r="U28" t="n">
-        <v>164.6938766971958</v>
+        <v>241.6905287560254</v>
       </c>
       <c r="V28" t="n">
-        <v>207.5091427233627</v>
+        <v>207.5091427233625</v>
       </c>
       <c r="W28" t="n">
-        <v>241.8944977361257</v>
+        <v>138.6271528808617</v>
       </c>
       <c r="X28" t="n">
-        <v>181.0811547885718</v>
+        <v>181.0811547885717</v>
       </c>
       <c r="Y28" t="n">
-        <v>173.9561527516294</v>
+        <v>173.9561527516293</v>
       </c>
     </row>
     <row r="29">
@@ -24686,13 +24686,13 @@
         <v>249.8214440982653</v>
       </c>
       <c r="E29" t="n">
-        <v>277.0687725498441</v>
+        <v>25.95984684697109</v>
       </c>
       <c r="F29" t="n">
-        <v>302.0144482192937</v>
+        <v>27.67457749464228</v>
       </c>
       <c r="G29" t="n">
-        <v>36.10126926806601</v>
+        <v>310.4411399927174</v>
       </c>
       <c r="H29" t="n">
         <v>234.6132045933495</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>45.00752041873199</v>
+        <v>45.00752041873201</v>
       </c>
       <c r="S29" t="n">
-        <v>97.2777218270312</v>
+        <v>104.1584720638277</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>118.2342520417137</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>146.4840553854188</v>
       </c>
       <c r="V29" t="n">
         <v>222.8906609477172</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>244.3793711949953</v>
       </c>
       <c r="X29" t="n">
-        <v>264.8695031560513</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.036470408984542</v>
+        <v>7.036470408984485</v>
       </c>
     </row>
     <row r="30">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>74.97038265951963</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>62.38522357621017</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>43.75387549579469</v>
       </c>
       <c r="E31" t="n">
-        <v>30.68991972912104</v>
+        <v>41.5723651241515</v>
       </c>
       <c r="F31" t="n">
-        <v>40.55945050051355</v>
+        <v>40.55945050051358</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>50.58887740484059</v>
+        <v>50.58887740484062</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>72.43179385475179</v>
+        <v>72.43179385475182</v>
       </c>
       <c r="S31" t="n">
-        <v>119.1550005145546</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>123.0839919058638</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>147.2760458014103</v>
       </c>
       <c r="W31" t="n">
-        <v>181.6614008141733</v>
+        <v>91.7574223435693</v>
       </c>
       <c r="X31" t="n">
-        <v>120.8480578666195</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>113.7230558296771</v>
       </c>
     </row>
     <row r="32">
@@ -24923,19 +24923,19 @@
         <v>249.8214440982653</v>
       </c>
       <c r="E32" t="n">
-        <v>2.728901825192736</v>
+        <v>2.728901825192622</v>
       </c>
       <c r="F32" t="n">
-        <v>27.67457749464239</v>
+        <v>27.67457749464228</v>
       </c>
       <c r="G32" t="n">
-        <v>36.10126926806601</v>
+        <v>36.10126926806589</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>234.6132045933495</v>
       </c>
       <c r="I32" t="n">
-        <v>98.58893850706487</v>
+        <v>105.6142920479882</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,19 +24962,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>45.00752041873197</v>
+        <v>45.007520418732</v>
       </c>
       <c r="S32" t="n">
-        <v>104.1584720638276</v>
+        <v>104.1584720638277</v>
       </c>
       <c r="T32" t="n">
-        <v>118.2342520417136</v>
+        <v>118.2342520417137</v>
       </c>
       <c r="U32" t="n">
-        <v>146.4840553854188</v>
+        <v>127.7361581988632</v>
       </c>
       <c r="V32" t="n">
-        <v>222.8906609477172</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>244.3793711949953</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>62.38522357621015</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>43.75387549579467</v>
       </c>
       <c r="E34" t="n">
-        <v>31.04302077467723</v>
+        <v>41.57236512415149</v>
       </c>
       <c r="F34" t="n">
-        <v>40.55945050051353</v>
+        <v>40.55945050051356</v>
       </c>
       <c r="G34" t="n">
-        <v>63.12938183604105</v>
+        <v>58.71003196695474</v>
       </c>
       <c r="H34" t="n">
-        <v>57.36557498502187</v>
+        <v>57.36557498502189</v>
       </c>
       <c r="I34" t="n">
-        <v>50.58887740484057</v>
+        <v>50.5888774048406</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.43179385475177</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>119.1550005145545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>123.0839919058638</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>147.2760458014103</v>
       </c>
       <c r="W34" t="n">
-        <v>181.6614008141733</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>113.7230558296771</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>277.8722441410629</v>
+        <v>44.06410124221293</v>
       </c>
       <c r="C35" t="n">
         <v>260.4112942485899</v>
       </c>
       <c r="D35" t="n">
-        <v>16.01330119941542</v>
+        <v>249.8214440982653</v>
       </c>
       <c r="E35" t="n">
         <v>277.0687725498441</v>
       </c>
       <c r="F35" t="n">
-        <v>96.0762359539869</v>
+        <v>302.0144482192937</v>
       </c>
       <c r="G35" t="n">
-        <v>76.63299709386752</v>
+        <v>310.4411399927174</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8050616944996136</v>
+        <v>234.6132045933495</v>
       </c>
       <c r="I35" t="n">
         <v>105.6142920479882</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>45.00752041873197</v>
+        <v>45.007520418732</v>
       </c>
       <c r="S35" t="n">
-        <v>104.1584720638276</v>
+        <v>104.1584720638277</v>
       </c>
       <c r="T35" t="n">
-        <v>118.2342520417136</v>
+        <v>118.2342520417137</v>
       </c>
       <c r="U35" t="n">
         <v>146.4840553854188</v>
@@ -25214,13 +25214,13 @@
         <v>222.8906609477172</v>
       </c>
       <c r="W35" t="n">
-        <v>244.3793711949953</v>
+        <v>38.44115892968836</v>
       </c>
       <c r="X35" t="n">
-        <v>264.8695031560513</v>
+        <v>31.06136025720139</v>
       </c>
       <c r="Y35" t="n">
-        <v>281.3763411336359</v>
+        <v>47.56819823478594</v>
       </c>
     </row>
     <row r="36">
@@ -25233,10 +25233,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>29.35653971936276</v>
       </c>
       <c r="D36" t="n">
-        <v>42.58346804222104</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25284,19 +25284,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>13.80067362308975</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>127.9389896270076</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>100.9113876810598</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.97038265951959</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>62.38522357621012</v>
+        <v>62.38522357621015</v>
       </c>
       <c r="D37" t="n">
-        <v>43.75387549579465</v>
+        <v>38.98142458115193</v>
       </c>
       <c r="E37" t="n">
-        <v>41.57236512415146</v>
+        <v>41.57236512415149</v>
       </c>
       <c r="F37" t="n">
-        <v>40.55945050051353</v>
+        <v>40.55945050051356</v>
       </c>
       <c r="G37" t="n">
-        <v>59.54468072377856</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>50.5888774048406</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25363,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>123.0839919058638</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>147.2760458014103</v>
       </c>
       <c r="W37" t="n">
-        <v>181.6614008141733</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>120.8480578666194</v>
+        <v>120.8480578666195</v>
       </c>
       <c r="Y37" t="n">
         <v>113.7230558296771</v>
@@ -25397,10 +25397,10 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E38" t="n">
-        <v>292.5337372208467</v>
+        <v>114.1624477049425</v>
       </c>
       <c r="F38" t="n">
-        <v>114.9688662101146</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G38" t="n">
         <v>325.90610466372</v>
@@ -25409,7 +25409,7 @@
         <v>250.0781692643521</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,22 +25442,22 @@
         <v>119.6234367348303</v>
       </c>
       <c r="T38" t="n">
-        <v>35.84565729204276</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V38" t="n">
-        <v>35.84507893853808</v>
+        <v>35.84507893853794</v>
       </c>
       <c r="W38" t="n">
-        <v>259.8443358659979</v>
+        <v>57.33378918581604</v>
       </c>
       <c r="X38" t="n">
         <v>280.334467827054</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.8413058046385</v>
+        <v>94.33075912445662</v>
       </c>
     </row>
     <row r="39">
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>83.31186613690066</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E39" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2.727551813769381</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G39" t="n">
         <v>47.94688431179556</v>
@@ -25518,13 +25518,13 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S39" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>110.7680958434065</v>
+        <v>90.90142282728388</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D40" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>57.03732979515409</v>
@@ -25564,7 +25564,7 @@
         <v>78.59434650704368</v>
       </c>
       <c r="H40" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>66.05384207584321</v>
@@ -25597,13 +25597,13 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S40" t="n">
-        <v>63.84156027807836</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>83.12767571263913</v>
       </c>
       <c r="U40" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="41">
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>303.3279080266103</v>
+        <v>154.99563428735</v>
       </c>
       <c r="C41" t="n">
-        <v>285.8669581341373</v>
+        <v>137.534684394877</v>
       </c>
       <c r="D41" t="n">
-        <v>275.2771079838127</v>
+        <v>126.9448342445524</v>
       </c>
       <c r="E41" t="n">
-        <v>154.1921626961312</v>
+        <v>302.5244364353915</v>
       </c>
       <c r="F41" t="n">
-        <v>327.4701121048412</v>
+        <v>196.8190453953007</v>
       </c>
       <c r="G41" t="n">
         <v>335.8968038782648</v>
       </c>
       <c r="H41" t="n">
-        <v>111.7365947396366</v>
+        <v>260.0688684788969</v>
       </c>
       <c r="I41" t="n">
         <v>131.0699559335357</v>
@@ -25673,10 +25673,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>70.46318430427942</v>
       </c>
       <c r="S41" t="n">
-        <v>69.42625354411405</v>
+        <v>129.6141359493751</v>
       </c>
       <c r="T41" t="n">
         <v>143.6899159272611</v>
@@ -25694,7 +25694,7 @@
         <v>290.3251670415988</v>
       </c>
       <c r="Y41" t="n">
-        <v>158.499731279923</v>
+        <v>306.8320050191833</v>
       </c>
     </row>
     <row r="42">
@@ -25713,7 +25713,7 @@
         <v>68.03913192776849</v>
       </c>
       <c r="E42" t="n">
-        <v>66.55004987178587</v>
+        <v>78.23914681853068</v>
       </c>
       <c r="F42" t="n">
         <v>65.66327875651362</v>
@@ -25725,7 +25725,7 @@
         <v>32.8295105996262</v>
       </c>
       <c r="I42" t="n">
-        <v>9.990699214544819</v>
+        <v>3.909858776455816</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25758,7 +25758,7 @@
         <v>92.27723746696756</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>120.7587950579513</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25770,7 +25770,7 @@
         <v>23.95677578478902</v>
       </c>
       <c r="X42" t="n">
-        <v>126.3670515666072</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>126.2767621404341</v>
@@ -25798,13 +25798,13 @@
         <v>66.01511438606099</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>88.5850457215885</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>82.82123887056932</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>76.04454129038803</v>
       </c>
       <c r="J43" t="n">
         <v>13.95324647980252</v>
@@ -25831,22 +25831,22 @@
         <v>6.756109614824126</v>
       </c>
       <c r="R43" t="n">
-        <v>62.63333383488599</v>
+        <v>97.88745774029923</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>144.610664400102</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2073820521509049</v>
+        <v>17.88858908187078</v>
       </c>
       <c r="U43" t="n">
-        <v>206.9130957196206</v>
+        <v>58.5808219803603</v>
       </c>
       <c r="V43" t="n">
-        <v>172.7317096869577</v>
+        <v>24.39943594769741</v>
       </c>
       <c r="W43" t="n">
-        <v>207.1170646997207</v>
+        <v>58.78479096046041</v>
       </c>
       <c r="X43" t="n">
         <v>146.3037217521669</v>
@@ -25865,13 +25865,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>331.9473099240153</v>
+        <v>331.9473099240151</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>362.5678967959757</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>332.0616181940937</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>177.1503077234136</v>
+        <v>177.1503077234135</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>175.6944877392531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>336.4055188314766</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25953,10 +25953,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>115.7160399025531</v>
+        <v>111.7436305463915</v>
       </c>
       <c r="G45" t="n">
-        <v>104.0179353162184</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>66.83225230565087</v>
+        <v>70.80466166181223</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>138.3575892568454</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>172.3571139303121</v>
+        <v>172.357113930312</v>
       </c>
     </row>
     <row r="46">
@@ -26026,16 +26026,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>132.1305453965288</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>113.1083807995769</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>112.095466175939</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>134.6653975114665</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26077,16 +26077,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>252.9934475094985</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>218.8120614768356</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>253.1974164895986</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>209.2247277673537</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>264478.174063292</v>
+        <v>264478.1740632919</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>319012.7849623481</v>
+        <v>319012.7849623482</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>345449.9570660482</v>
+        <v>345449.9570660486</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>401510.7728211591</v>
+        <v>401510.7728211595</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>446633.1229557688</v>
+        <v>446633.1229557693</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>446633.1229557688</v>
+        <v>446633.1229557691</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>567614.7921762124</v>
+        <v>567614.7921762123</v>
       </c>
     </row>
     <row r="13">
@@ -26314,37 +26314,37 @@
         <v>778312.5217811866</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811863</v>
+        <v>778312.5217811866</v>
       </c>
       <c r="D2" t="n">
-        <v>778312.5217811866</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="E2" t="n">
-        <v>250538.7988498724</v>
+        <v>250538.7988498725</v>
       </c>
       <c r="F2" t="n">
-        <v>311235.9664716791</v>
+        <v>311235.966471679</v>
       </c>
       <c r="G2" t="n">
-        <v>335637.2940298504</v>
+        <v>335637.2940298507</v>
       </c>
       <c r="H2" t="n">
-        <v>387365.5467407405</v>
+        <v>387365.5467407407</v>
       </c>
       <c r="I2" t="n">
         <v>439453.4428118847</v>
       </c>
       <c r="J2" t="n">
-        <v>439453.4428118849</v>
+        <v>439453.4428118848</v>
       </c>
       <c r="K2" t="n">
-        <v>583119.1750111603</v>
+        <v>583119.1750111594</v>
       </c>
       <c r="L2" t="n">
-        <v>583119.1750111603</v>
+        <v>583119.1750111592</v>
       </c>
       <c r="M2" t="n">
-        <v>564888.6231599166</v>
+        <v>564888.6231599154</v>
       </c>
       <c r="N2" t="n">
         <v>514537.5160428502</v>
@@ -26353,7 +26353,7 @@
         <v>466203.9589626638</v>
       </c>
       <c r="P2" t="n">
-        <v>221908.7341577433</v>
+        <v>221908.7341577434</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26378,13 @@
         <v>24305.84442608448</v>
       </c>
       <c r="G3" t="n">
-        <v>14849.45193901238</v>
+        <v>14849.45193901249</v>
       </c>
       <c r="H3" t="n">
-        <v>31029.84053276096</v>
+        <v>31029.84053276092</v>
       </c>
       <c r="I3" t="n">
-        <v>21233.94378713614</v>
+        <v>21233.94378713615</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635854</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393012.3122149283</v>
+        <v>393270.9175066696</v>
       </c>
       <c r="C4" t="n">
-        <v>393012.3122149283</v>
+        <v>393270.9175066696</v>
       </c>
       <c r="D4" t="n">
-        <v>393012.3122149283</v>
+        <v>393270.9175066696</v>
       </c>
       <c r="E4" t="n">
-        <v>68328.03320492033</v>
+        <v>68614.00627512048</v>
       </c>
       <c r="F4" t="n">
-        <v>99752.18863540181</v>
+        <v>100056.4496887081</v>
       </c>
       <c r="G4" t="n">
-        <v>105668.7943640804</v>
+        <v>106004.5332549877</v>
       </c>
       <c r="H4" t="n">
-        <v>118185.4913612716</v>
+        <v>118588.0496942518</v>
       </c>
       <c r="I4" t="n">
-        <v>147774.6513171894</v>
+        <v>148183.9388511619</v>
       </c>
       <c r="J4" t="n">
-        <v>147774.6513171894</v>
+        <v>148183.9388511619</v>
       </c>
       <c r="K4" t="n">
-        <v>234210.9405267277</v>
+        <v>234620.2280607</v>
       </c>
       <c r="L4" t="n">
-        <v>234210.9405267277</v>
+        <v>234620.2280607</v>
       </c>
       <c r="M4" t="n">
-        <v>226155.2282762187</v>
+        <v>226553.5998036669</v>
       </c>
       <c r="N4" t="n">
-        <v>200918.3676040614</v>
+        <v>201298.5550773198</v>
       </c>
       <c r="O4" t="n">
-        <v>180604.0557867782</v>
+        <v>180952.765422436</v>
       </c>
       <c r="P4" t="n">
-        <v>52389.21044737863</v>
+        <v>52670.60805315983</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>6818.972203957756</v>
       </c>
       <c r="G5" t="n">
-        <v>10113.01119876577</v>
+        <v>10113.01119876579</v>
       </c>
       <c r="H5" t="n">
-        <v>17105.41806581567</v>
+        <v>17105.41806581568</v>
       </c>
       <c r="I5" t="n">
-        <v>20431.73755703932</v>
+        <v>20431.73755703934</v>
       </c>
       <c r="J5" t="n">
-        <v>20431.73755703932</v>
+        <v>20431.73755703934</v>
       </c>
       <c r="K5" t="n">
         <v>25495.47378217094</v>
@@ -26500,16 +26500,16 @@
         <v>25495.47378217094</v>
       </c>
       <c r="M5" t="n">
-        <v>23031.1447303622</v>
+        <v>23031.14473036221</v>
       </c>
       <c r="N5" t="n">
-        <v>19828.12676534066</v>
+        <v>19828.12676534068</v>
       </c>
       <c r="O5" t="n">
         <v>15694.17967826507</v>
       </c>
       <c r="P5" t="n">
-        <v>2026.19537629713</v>
+        <v>2026.195376297137</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351672.6095662583</v>
+        <v>351414.0042745169</v>
       </c>
       <c r="C6" t="n">
-        <v>351672.609566258</v>
+        <v>351414.0042745169</v>
       </c>
       <c r="D6" t="n">
-        <v>351672.6095662583</v>
+        <v>351414.0042745168</v>
       </c>
       <c r="E6" t="n">
-        <v>158812.0868984677</v>
+        <v>158526.1138282677</v>
       </c>
       <c r="F6" t="n">
-        <v>180358.961206235</v>
+        <v>180054.7001529286</v>
       </c>
       <c r="G6" t="n">
-        <v>205006.0365279919</v>
+        <v>204670.2976370848</v>
       </c>
       <c r="H6" t="n">
-        <v>221044.7967808923</v>
+        <v>220642.2384479124</v>
       </c>
       <c r="I6" t="n">
-        <v>250013.1101505198</v>
+        <v>249603.8226165473</v>
       </c>
       <c r="J6" t="n">
-        <v>263254.4945660203</v>
+        <v>262845.2070320477</v>
       </c>
       <c r="K6" t="n">
-        <v>259888.0137927655</v>
+        <v>259478.7262587922</v>
       </c>
       <c r="L6" t="n">
-        <v>323412.7607022618</v>
+        <v>323003.4731682882</v>
       </c>
       <c r="M6" t="n">
-        <v>315702.2501533357</v>
+        <v>315303.8786258863</v>
       </c>
       <c r="N6" t="n">
-        <v>293791.0216734481</v>
+        <v>293410.8342001897</v>
       </c>
       <c r="O6" t="n">
-        <v>269905.7234976205</v>
+        <v>269557.0138619628</v>
       </c>
       <c r="P6" t="n">
-        <v>167493.3283340676</v>
+        <v>167211.9307282864</v>
       </c>
     </row>
   </sheetData>
@@ -26698,16 +26698,16 @@
         <v>29.1635359294628</v>
       </c>
       <c r="G2" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="H2" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="I2" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="J2" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="K2" t="n">
         <v>104.8615975224177</v>
@@ -26802,34 +26802,34 @@
         <v>71.82932404446956</v>
       </c>
       <c r="G4" t="n">
-        <v>126.007596985391</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="J4" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="K4" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="L4" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="M4" t="n">
-        <v>233.8081428988498</v>
+        <v>233.80814289885</v>
       </c>
       <c r="N4" t="n">
-        <v>202.5105466801818</v>
+        <v>202.5105466801819</v>
       </c>
       <c r="O4" t="n">
         <v>148.3322737392603</v>
       </c>
       <c r="P4" t="n">
-        <v>33.32558184699226</v>
+        <v>33.32558184699239</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15.46496467100263</v>
+        <v>15.4649646710026</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544819</v>
@@ -27024,13 +27024,13 @@
         <v>31.29759621866806</v>
       </c>
       <c r="G4" t="n">
-        <v>54.17827294092144</v>
+        <v>54.17827294092156</v>
       </c>
       <c r="H4" t="n">
-        <v>115.0066918922681</v>
+        <v>115.0066918922679</v>
       </c>
       <c r="I4" t="n">
-        <v>33.32558184699229</v>
+        <v>33.32558184699241</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15.46496467100263</v>
+        <v>15.4649646710026</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544819</v>
@@ -27270,10 +27270,10 @@
         <v>31.29759621866806</v>
       </c>
       <c r="O4" t="n">
-        <v>54.17827294092144</v>
+        <v>54.17827294092156</v>
       </c>
       <c r="P4" t="n">
-        <v>115.0066918922681</v>
+        <v>115.0066918922679</v>
       </c>
     </row>
   </sheetData>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="C17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="D17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="E17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="F17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="G17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="H17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="I17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="T17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="U17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="V17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="W17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="X17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="C18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="D18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="E18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="F18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="G18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="H18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="I18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="S18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="T18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="U18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="V18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="W18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="X18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="Y18" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="C19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="D19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="E19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="F19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="G19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="H19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="I19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="J19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="K19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="L19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="M19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="N19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="O19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="P19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="R19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="S19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="T19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="U19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="V19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="W19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="X19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="C20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="D20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="E20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="F20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="G20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="H20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="I20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="S20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="T20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="U20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="V20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="W20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="X20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="C21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="D21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="E21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="F21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="G21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="H21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="I21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="S21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="T21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="U21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="V21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="W21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="X21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="C22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="D22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="E22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="F22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="G22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="H22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="I22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="J22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="K22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="L22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="M22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="N22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="O22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="R22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="S22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="T22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="U22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="V22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="W22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="X22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.1635359294627</v>
+        <v>29.16353592946287</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="C23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="D23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="E23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="F23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="G23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="H23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="I23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="J23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29068,43 +29068,43 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>44.62850060046534</v>
+        <v>20.01032600029661</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="P23" t="n">
-        <v>20.01032600029654</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="R23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="S23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="T23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="U23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="V23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="W23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="X23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="Y23" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="C24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="D24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="E24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="F24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="G24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="H24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="I24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="S24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="T24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="U24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="V24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="W24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="X24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="Y24" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="C25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="D25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="E25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="F25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="G25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="H25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="I25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="J25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="K25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="L25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="M25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="N25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="O25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="P25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="R25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="S25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="T25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="U25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="V25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="W25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="X25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="Y25" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
     </row>
     <row r="26">
@@ -29272,43 +29272,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="C26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="D26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="E26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="F26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="G26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="H26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="I26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="J26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="K26" t="n">
-        <v>20.01032600029654</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="L26" t="n">
-        <v>44.62850060046534</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>20.01032600029661</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="R26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="S26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="T26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="U26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="V26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="W26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="X26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="Y26" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="C27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="D27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="E27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="F27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="G27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="H27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="I27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="S27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="T27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="U27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="V27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="W27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="X27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="Y27" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="C28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="D28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="E28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="F28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="G28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="H28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="I28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="J28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="K28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="L28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="M28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="N28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="O28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="P28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="R28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="S28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="T28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="U28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="V28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="W28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="X28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.62850060046534</v>
+        <v>44.62850060046547</v>
       </c>
     </row>
     <row r="29">
@@ -29554,7 +29554,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>49.03423027927474</v>
+        <v>49.03423027927543</v>
       </c>
       <c r="R29" t="n">
         <v>104.8615975224177</v>
@@ -29791,7 +29791,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.03423027927474</v>
+        <v>49.03423027927521</v>
       </c>
       <c r="R32" t="n">
         <v>104.8615975224177</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>38.89408225708225</v>
+      </c>
+      <c r="N11" t="n">
         <v>40.53172782580149</v>
-      </c>
-      <c r="L11" t="n">
-        <v>38.89408225708225</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>40.53172782580149</v>
@@ -35495,11 +35495,11 @@
         <v>40.53172782580149</v>
       </c>
       <c r="M12" t="n">
+        <v>40.53172782580149</v>
+      </c>
+      <c r="N12" t="n">
         <v>38.89408225708225</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.53172782580149</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>71.82932404446956</v>
+        <v>68.92712913358189</v>
       </c>
       <c r="L14" t="n">
-        <v>68.92712913358189</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>71.82932404446956</v>
@@ -35662,7 +35662,7 @@
         <v>71.82932404446956</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>71.82932404446956</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.92712913358189</v>
+        <v>71.82932404446956</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>71.82932404446956</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>71.82932404446956</v>
       </c>
       <c r="N15" t="n">
-        <v>71.82932404446956</v>
+        <v>68.9271291335819</v>
       </c>
       <c r="O15" t="n">
-        <v>71.82932404446956</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>71.82932404446956</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>52.30270398857119</v>
       </c>
       <c r="M17" t="n">
-        <v>126.007596985391</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="N17" t="n">
-        <v>52.30270398857093</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>126.007596985391</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="M18" t="n">
-        <v>126.007596985391</v>
+        <v>120.9163809455774</v>
       </c>
       <c r="N18" t="n">
-        <v>50.82086729574965</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>126.007596985391</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>126.007596985391</v>
+        <v>126.0075969853911</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>6.894044103579851</v>
+        <v>6.894044103580015</v>
       </c>
       <c r="L19" t="n">
-        <v>56.75356118977884</v>
+        <v>56.75356118977901</v>
       </c>
       <c r="M19" t="n">
-        <v>68.7474128913033</v>
+        <v>68.74741289130345</v>
       </c>
       <c r="N19" t="n">
-        <v>73.2957083086913</v>
+        <v>73.29570830869146</v>
       </c>
       <c r="O19" t="n">
-        <v>53.74866384350238</v>
+        <v>53.74866384350254</v>
       </c>
       <c r="P19" t="n">
-        <v>26.44209519435619</v>
+        <v>26.44209519435636</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>217.7067518141195</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>6.894044103579851</v>
+        <v>6.894044103580015</v>
       </c>
       <c r="L22" t="n">
-        <v>56.75356118977884</v>
+        <v>56.75356118977901</v>
       </c>
       <c r="M22" t="n">
-        <v>68.7474128913033</v>
+        <v>68.74741289130345</v>
       </c>
       <c r="N22" t="n">
-        <v>73.2957083086913</v>
+        <v>73.29570830869146</v>
       </c>
       <c r="O22" t="n">
-        <v>53.74866384350238</v>
+        <v>53.74866384350254</v>
       </c>
       <c r="P22" t="n">
-        <v>26.44209519435619</v>
+        <v>26.44209519435636</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>32.67921124585282</v>
+        <v>32.67921124585295</v>
       </c>
       <c r="K23" t="n">
         <v>104.0555615261842</v>
@@ -36364,19 +36364,19 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>263.7958008660251</v>
+        <v>239.1776262658564</v>
       </c>
       <c r="N23" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>195.3304704415241</v>
       </c>
       <c r="P23" t="n">
-        <v>110.5760384165096</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q23" t="n">
-        <v>34.63780138592053</v>
+        <v>34.63780138592067</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>101.8408661702126</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>274.3398707246513</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>17.27097333305968</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.35900877458248</v>
+        <v>22.35900877458262</v>
       </c>
       <c r="L25" t="n">
-        <v>72.21852586078148</v>
+        <v>72.21852586078161</v>
       </c>
       <c r="M25" t="n">
-        <v>84.21237756230593</v>
+        <v>84.21237756230606</v>
       </c>
       <c r="N25" t="n">
-        <v>88.76067297969394</v>
+        <v>88.76067297969406</v>
       </c>
       <c r="O25" t="n">
-        <v>69.21362851450502</v>
+        <v>69.21362851450515</v>
       </c>
       <c r="P25" t="n">
-        <v>41.90705986535882</v>
+        <v>41.90705986535896</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>32.67921124585282</v>
+        <v>32.67921124585295</v>
       </c>
       <c r="K26" t="n">
-        <v>124.0658875264807</v>
+        <v>148.6840621266497</v>
       </c>
       <c r="L26" t="n">
-        <v>226.5233001809285</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153932</v>
+        <v>227.9441868156898</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36613,7 +36613,7 @@
         <v>90.5657124162131</v>
       </c>
       <c r="Q26" t="n">
-        <v>34.63780138592053</v>
+        <v>34.63780138592067</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="N27" t="n">
-        <v>17.27097333305945</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>17.27097333305968</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.35900877458248</v>
+        <v>22.35900877458262</v>
       </c>
       <c r="L28" t="n">
-        <v>72.21852586078148</v>
+        <v>72.21852586078161</v>
       </c>
       <c r="M28" t="n">
-        <v>84.21237756230593</v>
+        <v>84.21237756230606</v>
       </c>
       <c r="N28" t="n">
-        <v>88.76067297969394</v>
+        <v>88.76067297969406</v>
       </c>
       <c r="O28" t="n">
-        <v>69.21362851450502</v>
+        <v>69.21362851450515</v>
       </c>
       <c r="P28" t="n">
-        <v>41.90705986535882</v>
+        <v>41.90705986535896</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>92.91230816780518</v>
+        <v>92.91230816780515</v>
       </c>
       <c r="K29" t="n">
         <v>104.0555615261842</v>
@@ -36850,7 +36850,7 @@
         <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
-        <v>39.04353106472994</v>
+        <v>39.04353106473063</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>50.7254618290853</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>274.3398707246513</v>
+        <v>143.8947713712793</v>
       </c>
       <c r="N30" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.50241740574492</v>
+        <v>11.50241740574489</v>
       </c>
       <c r="K31" t="n">
-        <v>82.59210569653484</v>
+        <v>82.59210569653482</v>
       </c>
       <c r="L31" t="n">
         <v>132.4516227827338</v>
@@ -37002,13 +37002,13 @@
         <v>148.9937699016463</v>
       </c>
       <c r="O31" t="n">
-        <v>129.4467254364574</v>
+        <v>129.4467254364573</v>
       </c>
       <c r="P31" t="n">
         <v>102.1401567873112</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.69955427072331</v>
+        <v>18.69955427072328</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>92.91230816780519</v>
+        <v>92.91230816780516</v>
       </c>
       <c r="K32" t="n">
         <v>104.0555615261842</v>
@@ -37087,7 +37087,7 @@
         <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
-        <v>39.04353106472994</v>
+        <v>39.0435310647304</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>249.5569388566444</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="N33" t="n">
-        <v>274.3398707246513</v>
+        <v>274.3398707246515</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>120.820975478913</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.50241740574494</v>
+        <v>11.50241740574491</v>
       </c>
       <c r="K34" t="n">
-        <v>82.59210569653486</v>
+        <v>82.59210569653483</v>
       </c>
       <c r="L34" t="n">
-        <v>132.4516227827339</v>
+        <v>132.4516227827338</v>
       </c>
       <c r="M34" t="n">
         <v>144.4454744842583</v>
@@ -37245,7 +37245,7 @@
         <v>102.1401567873112</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.69955427072333</v>
+        <v>18.6995542707233</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>75.52213502423304</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37321,7 +37321,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>62.03228591426154</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>147.0573328813945</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>233.80814289885</v>
       </c>
       <c r="N36" t="n">
-        <v>233.8081428988498</v>
+        <v>233.80814289885</v>
       </c>
       <c r="O36" t="n">
-        <v>233.8081428988498</v>
+        <v>29.16421493358895</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.50241740574494</v>
+        <v>11.50241740574491</v>
       </c>
       <c r="K37" t="n">
-        <v>82.59210569653486</v>
+        <v>82.59210569653483</v>
       </c>
       <c r="L37" t="n">
-        <v>132.4516227827339</v>
+        <v>132.4516227827338</v>
       </c>
       <c r="M37" t="n">
         <v>144.4454744842583</v>
@@ -37482,7 +37482,7 @@
         <v>102.1401567873112</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.69955427072333</v>
+        <v>18.6995542707233</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>202.5105466801818</v>
+        <v>162.6970647825292</v>
       </c>
       <c r="N38" t="n">
-        <v>202.5105466801818</v>
+        <v>202.5105466801819</v>
       </c>
       <c r="O38" t="n">
-        <v>110.8884879434057</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>202.5105466801818</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>202.5105466801818</v>
+        <v>15.63117613639919</v>
       </c>
       <c r="N39" t="n">
-        <v>202.5105466801818</v>
+        <v>202.5105466801819</v>
       </c>
       <c r="O39" t="n">
-        <v>124.2327887200438</v>
+        <v>202.5105466801819</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37786,16 +37786,16 @@
         <v>148.3322737392603</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>38.28348903169194</v>
       </c>
       <c r="N41" t="n">
-        <v>96.05005035473914</v>
+        <v>148.3322737392603</v>
       </c>
       <c r="O41" t="n">
         <v>148.3322737392603</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>72.24353690804847</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>148.3322737392603</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>148.3322737392603</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>148.3322737392603</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>15.71525251965646</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>33.32558184699226</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="L44" t="n">
-        <v>31.97909369155823</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>31.97909369155835</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>33.32558184699226</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="P44" t="n">
-        <v>33.32558184699226</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>33.32558184699226</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>31.97909369155823</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>31.97909369155835</v>
       </c>
       <c r="N45" t="n">
-        <v>33.32558184699226</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>33.32558184699226</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>33.32558184699226</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="N46" t="n">
-        <v>33.32558184699226</v>
+        <v>33.32558184699239</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
